--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -478,18 +478,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zerodha nifty largemidcap</t>
+          <t>samco active momentum fund</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>samco active momentum fund</t>
+        </is>
+      </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
@@ -500,7 +504,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zerodha elss tax saver nifty</t>
+          <t>samco dynamic asset allocation fund</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -511,7 +515,11 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>samco dynamic asset allocation fund</t>
+        </is>
+      </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
@@ -522,18 +530,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>zerodha nifty 1d rate</t>
+          <t>samco flexi cap fund</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>samco flexi cap fund</t>
+        </is>
+      </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
@@ -544,18 +556,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>zerodha gold etf</t>
+          <t>samco multi cap fund</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>samco multi cap fund</t>
+        </is>
+      </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
@@ -566,18 +582,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>zerodha nifty</t>
+          <t>samco special opportunities fund</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>samco special opportunities fund</t>
+        </is>
+      </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
@@ -588,20 +608,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>zerodha nifty</t>
+          <t>samco elss tax saver fund</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>samco elss tax saver fund</t>
+        </is>
+      </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -610,38 +634,50 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>zerodha gold etf fof</t>
+          <t>samco multi asset allocation fund</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>samco multi asset allocation fund</t>
+        </is>
+      </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>samco overnight fund</t>
+        </is>
+      </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>samco arbitrage fund</t>
+        </is>
+      </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -650,7 +686,7 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -659,7 +695,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -668,7 +704,52 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>highlights</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>detected_indices</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -453,6 +458,11 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -460,7 +470,12 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -469,7 +484,12 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -482,7 +502,12 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -495,7 +520,12 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -508,7 +538,12 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -521,7 +556,12 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -534,7 +574,12 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -547,7 +592,12 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -560,7 +610,12 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -573,7 +628,12 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -586,7 +646,12 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -599,7 +664,12 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -612,7 +682,12 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -625,7 +700,12 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -638,7 +718,12 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -651,7 +736,12 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -664,7 +754,12 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -677,7 +772,12 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -686,7 +786,12 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -695,7 +800,12 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -704,7 +814,12 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -713,7 +828,12 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -722,7 +842,12 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -731,7 +856,12 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -742,6 +872,11 @@
       <c r="C27" t="n">
         <v>0</v>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -750,6 +885,11 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
         <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,11 +456,11 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -470,11 +470,11 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -484,11 +484,11 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,13 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>samco active momentum fund</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -514,17 +510,13 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>samco active momentum fund</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -532,17 +524,13 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>samco dynamic asset allocation fund</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -550,17 +538,13 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>samco dynamic asset allocation fund</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -568,17 +552,13 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>samco flexi cap fund</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -586,17 +566,13 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>samco flexi cap fund</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -604,17 +580,13 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>samco multi cap fund</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -622,17 +594,13 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>samco multi cap fund</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -640,17 +608,13 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>samco special opportunities fund</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -658,17 +622,13 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>samco special opportunities fund</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -676,17 +636,13 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>samco elss tax saver fund</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -694,17 +650,13 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>samco elss tax saver fund</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -712,17 +664,13 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>samco multi asset allocation fund</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -732,15 +680,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>samco multi asset allocation fund</t>
+          <t>tata large cap fund</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -750,15 +698,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>samco overnight fund</t>
+          <t>tata flexi cap fund</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -768,15 +716,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>samco arbitrage fund</t>
+          <t>tata large &amp; mid cap fund</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -784,13 +732,17 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>tata equity p/e fund</t>
+        </is>
+      </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -798,13 +750,17 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>tata mid cap growth fund</t>
+        </is>
+      </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -812,13 +768,17 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>tata elss tax saver fund</t>
+        </is>
+      </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -826,13 +786,17 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>tata small cap fund</t>
+        </is>
+      </c>
       <c r="C24" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -840,13 +804,17 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>tata focused equity fund</t>
+        </is>
+      </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -854,13 +822,17 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>tata nifty 50 index fund</t>
+        </is>
+      </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -868,13 +840,17 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>tata nifty auto index fund</t>
+        </is>
+      </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>
@@ -882,13 +858,1449 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>tata nifty india tourism index fund</t>
+        </is>
+      </c>
       <c r="C28" t="n">
+        <v>17</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>tata nifty financial services index fund</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>18</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>tata nifty midsmall healthcare index fund</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>18</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>tata nifty realty index fund</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>18</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>tata nifty500 multicap india manufacturing 50:30:20 index fund</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>18</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>tata nifty500 multicap infrastructure 50:30:20 index fund</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>18</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>tata bse sensex index fund</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>24</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>tata bse select business groups index fund</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>16</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>tata nifty 50 exchange traded fund</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>26</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>tata nifty private bank exchange traded fund</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>26</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>tata dividend yield fund</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>25</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>tata nifty india digital etf fund of fund</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>18</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>tata nifty india digital exchange traded fund</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>24</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>tata silver exchange traded fund</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>19</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>tata silver etf fund of fund</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>tata gold exchange traded fund</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>19</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>tata gold etf fund of fund</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>16</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>tata nifty midcap 150 momentum 50 index fund</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>22</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>tata nifty200 alpha 30 index fund</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>28</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>tata nifty capital markets index fund</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>17</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>tata multicap fund</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>16</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>tata business cycle fund</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>22</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>tata ethical fund</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>19</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>tata banking &amp; financial services fund</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>22</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>tata digital india fund</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>24</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>tata india consumer fund</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>24</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>tata india pharma &amp; healthcare fund</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>23</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>tata resources &amp; energy fund</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>22</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>tata infrastructure fund</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>21</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>tata quant fund</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>24</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>tata housing opportunities fund</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>15</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>tata india innovation fund</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>17</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>tata hybrid equity fund</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>29</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>tata equity savings fund</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>31</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>tata balanced advantage fund</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>26</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>tata balanced advantage fund</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>7</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>tata arbitrage fund</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>26</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>tata arbitrage fund</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>12</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>tata multi asset opportunities fund</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>31</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>tata multi asset opportunities fund</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>tata short term bond fund</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>25</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>tata treasury advantage fund</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>25</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>tata money market fund</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>22</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>tata ultra short term fund</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>26</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>tata corporate bond fund</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>22</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>tata floating rate fund</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>23</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>tata nifty sdl plus aaa psu bond dec 2027 60:40 index fund</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>21</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>tata crisil-ibx gilt index  april 2026 index fund</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>21</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>tata nifty g-sec dec 2026 index fund</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>21</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>tata nifty g-sec dec 2029 index fund</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>22</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>tata fixed maturity plan series 61 scheme d (91 days)</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>19</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>tata liquid fund</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>22</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>tata overnight fund</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>23</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>tata gilt securities fund</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>22</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>tata retirement savings fund - progressive plan</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>22</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>tata retirement savings fund - moderate plan</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>22</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>tata retirement savings fund - conservative plan</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>26</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>tata young citizens’ fund</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>22</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>18</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="n">
+        <v>15</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="n">
+        <v>15</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>15</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>17</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="n">
+        <v>18</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>16</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="n">
+        <v>17</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="n">
+        <v>14</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="n">
+        <v>14</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="n">
+        <v>16</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="n">
+        <v>13</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="n">
+        <v>12</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="n">
+        <v>16</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="n">
+        <v>14</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="n">
+        <v>18</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="n">
+        <v>13</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>13</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="n">
+        <v>9</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="n">
+        <v>18</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="n">
+        <v>15</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>11</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="n">
+        <v>20</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="n">
+        <v>23</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="n">
+        <v>33</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="n">
         <v>0</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>{'modified duration', 'par value', 'additional amount', 'face value', 'entry load', 'exit load', 'benchmark', 'fund scheme', 'macaulay duration', 'nav', 'benchmark index', 'inception date', 'average maturity', 'total experience', 'investment objective', 'portfolio turnover', 'assets under management', 'pb', 'quantitative data', 'objective', 'average aum', 'min.application', 'portfolio beta', 'scheme name', 'fund manager', 'minimum investment', 'ytm', 'sharpe ratio', 'date of allotment', 'standard deviation', 'managed by'}</t>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="n">
+        <v>3</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="n">
+        <v>3</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>{'standard deviation', 'p/e', 'investment objective', 'portfolio beta', 'benchmark index', 'fund name', 'par value', 'additional amount', 'benchmark riskometer', 'fund manager', 'tracking error', 'inception date', 'pe', 'portfolio turnover', 'modified duration', 'nav', 'yield to maturity', 'ytm', 'macaulay duration', 'sharpe ratio', 'benchmark', 'entry load', 'creation unit size', 'alpha', 'date of allotment', 'average aum', 'face value', 'minimum investment', 'fund scheme', 'treynor ratio', 'scheme name', 'objective', 'average maturity', 'scheme riskometer', 'pb', 'managed by', 'r squared', 'exit load'}</t>
         </is>
       </c>
     </row>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,21 +534,6 @@
           <t>idx_18</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>idx_19</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>idx_20</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>idx_21</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -556,18 +541,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>scheme name</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -584,9 +561,6 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -594,7 +568,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -603,158 +577,100 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>additional amount</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>average maturity</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>additional amount</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>p/e</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>r squared</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>helios flexi cap fund</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>monthly avg aum</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -762,33 +678,90 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>helios flexi cap fund</t>
+          <t>samco active momentum fund</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>min.application</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -796,85 +769,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>helios financial services fund</t>
+          <t>samco active momentum fund</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>monthly avg aum</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -882,33 +804,102 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>helios financial services fund</t>
+          <t>samco dynamic asset allocation fund</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -916,85 +907,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>helios large &amp; mid cap fund</t>
+          <t>samco dynamic asset allocation fund</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>monthly avg aum</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1002,33 +942,90 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>helios large &amp; mid cap fund</t>
+          <t>samco flexi cap fund</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>min.application</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1036,85 +1033,34 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>helios balanced advantage fund</t>
+          <t>samco flexi cap fund</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>monthly avg aum</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1122,33 +1068,82 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>helios balanced advantage fund</t>
+          <t>samco multi cap fund</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>min.application</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1156,110 +1151,55 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>helios overnight fund</t>
+          <t>samco multi cap fund</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>monthly avg aum</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>samco special opportunities fund</t>
+        </is>
+      </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1269,153 +1209,82 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>assets under management</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>samco special opportunities fund</t>
+        </is>
+      </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
@@ -1424,26 +1293,27 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>samco elss tax saver fund</t>
+        </is>
+      </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1451,24 +1321,888 @@
           <t>benchmark</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>min.application</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>samco elss tax saver fund</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>samco multi asset allocation fund</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>17</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>min.application</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>samco multi asset allocation fund</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>samco overnight fund</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>min.application</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>samco arbitrage fund</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>13</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>12</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>12</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,46 @@
       <c r="U1" s="1" t="inlineStr">
         <is>
           <t>idx_18</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>idx_19</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>idx_20</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>idx_21</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>idx_22</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>idx_23</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>idx_24</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>idx_25</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>idx_26</t>
         </is>
       </c>
     </row>
@@ -561,6 +601,14 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -568,82 +616,34 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>additional amount</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -671,115 +671,59 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>samco active momentum fund</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>min.application</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>samco active momentum fund</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -797,127 +741,59 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>samco dynamic asset allocation fund</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>18</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>samco dynamic asset allocation fund</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -935,115 +811,59 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>samco flexi cap fund</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>15</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>min.application</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>samco flexi cap fund</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -1061,89 +881,49 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>samco multi cap fund</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>13</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>min.application</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1151,34 +931,94 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>samco multi cap fund</t>
+          <t>uti large cap fund</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1186,11 +1026,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>samco special opportunities fund</t>
+          <t>uti mid cap fund</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1199,22 +1039,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>entry load</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>benchmark index</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1224,17 +1064,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>load</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1244,20 +1084,36 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>assets under management</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1265,34 +1121,94 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>samco special opportunities fund</t>
+          <t>uti small cap fund</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1300,7 +1216,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>samco elss tax saver fund</t>
+          <t>uti large &amp; mid cap fund</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1313,42 +1229,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>min.application</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>entry load</t>
+          <t>benchmark index</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>load</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1358,28 +1274,36 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>turnover ratio</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>assets under management</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1387,34 +1311,94 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>samco elss tax saver fund</t>
+          <t>uti value fund</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1422,11 +1406,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>samco multi asset allocation fund</t>
+          <t>uti elss tax saver fund</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1435,47 +1419,47 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>min.application</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>entry load</t>
+          <t>benchmark index</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>load</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1485,35 +1469,31 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1521,34 +1501,94 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>samco multi asset allocation fund</t>
+          <t>uti focused fund</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1556,11 +1596,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>samco overnight fund</t>
+          <t>uti flexi cap fund</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1569,42 +1609,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>min.application</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>entry load</t>
+          <t>benchmark index</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>load</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1614,40 +1654,36 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1655,11 +1691,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>samco arbitrage fund</t>
+          <t>uti innovation fund</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1668,22 +1704,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>entry load</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>benchmark index</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1693,17 +1729,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>load</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1713,61 +1749,77 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>assets under management</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr"/>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>uti dividend yield fund</t>
+        </is>
+      </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>benchmark index</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1777,7 +1829,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1787,62 +1839,82 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>uti mnc fund</t>
+        </is>
+      </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>benchmark index</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1852,7 +1924,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1862,62 +1934,82 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>uti india consumer fund</t>
+        </is>
+      </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>benchmark index</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1927,7 +2019,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1937,62 +2029,82 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>uti infrastructure fund</t>
+        </is>
+      </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>benchmark index</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2002,7 +2114,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2012,62 +2124,82 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>uti banking &amp; financial services fund</t>
+        </is>
+      </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>benchmark index</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2077,7 +2209,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2087,122 +2219,7264 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>uti healthcare fund</t>
+        </is>
+      </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>scheme name</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>uti transportation &amp; logistics fund</t>
+        </is>
+      </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>uti nifty 50 index fund</t>
+        </is>
+      </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>uti nifty next 50 index fund</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>uti nifty 200 momentum 30 index fund</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>uti bse sensex index fund</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>13</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>uti nifty midcap 150 quality 50 index fund</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>13</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>uti bse low volatility index fund</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>13</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>uti nifty 50 equal weight index fund</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>13</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>uti nifty 500 value 50 index fund</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>13</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>uti bse housing index fund</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>13</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>uti nifty private bank index fund</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>9</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>uti nifty200 quality 30 index fund</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>10</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>uti balanced advantage fund</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>13</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>uti balanced advantage fund</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>uti multi asset allocation fund</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>17</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>uti multi asset allocation fund</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>uti aggressive hybrid fund</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>13</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>uti aggressive hybrid fund</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>uti equity savings fund</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>13</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>uti equity savings fund</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>uti arbitrage fund</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>15</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>uti conservative hybrid fund</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>13</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>uti conservative hybrid fund</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>uti children’s equity fund</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>13</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>uti children’s equity fund</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>uti children’s hybrid fund</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>13</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>uti children’s hybrid fund</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>uti retirement fund</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>13</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>uti retirement fund</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>uti unit linked insurance plan*</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>13</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>uti unit linked insurance plan*</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>uti overnight fund</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>14</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>uti liquid fund</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>17</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>uti money market fund</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>15</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>uti ultra short duration fund</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>15</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>uti low duration fund</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>16</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>uti short duration fund</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>16</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>uti medium duration fund</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>15</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>uti medium duration fund</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>6</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>uti medium to long duration fund</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>19</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>uti long duration fund</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>14</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>uti floater fund</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>16</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>uti banking &amp; psu fund</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>15</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>uti corporate bond fund</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>16</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>uti dynamic bond fund</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>18</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>uti credit risk fund</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>15</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>uti credit risk fund</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>7</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>uti gilt fund</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>14</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>uti gilt fund with 10 year constant duration</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>14</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>uti crisil sdl maturity june 2027 index fund</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>15</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>uti crisil sdl maturity april 2033 index fund</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>15</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>uti nifty sdl plus aaa psu bond apr 2026 75:25 index fund</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>15</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>uti nifty sdl plus aaa psu bond apr 2028 75:25 index fund</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>15</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="n">
+        <v>24</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="n">
+        <v>24</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr"/>
+      <c r="AC81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="n">
+        <v>24</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr"/>
+      <c r="AC82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>26</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>24</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="n">
+        <v>24</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr"/>
+      <c r="AC85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>21</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr"/>
+      <c r="AC86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="n">
+        <v>16</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="n">
+        <v>16</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>16</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>16</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="n">
+        <v>7</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr"/>
+      <c r="AC94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr"/>
+      <c r="AC97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="n">
+        <v>2</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="n">
+        <v>3</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="n">
+        <v>2</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
+      <c r="AB108" t="inlineStr"/>
+      <c r="AC108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
+      <c r="AB109" t="inlineStr"/>
+      <c r="AC109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
+      <c r="AB110" t="inlineStr"/>
+      <c r="AC110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
+      <c r="AB111" t="inlineStr"/>
+      <c r="AC111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
+      <c r="AB113" t="inlineStr"/>
+      <c r="AC113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+      <c r="AB114" t="inlineStr"/>
+      <c r="AC114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="n">
+        <v>7</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+      <c r="AB115" t="inlineStr"/>
+      <c r="AC115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
+      <c r="AB116" t="inlineStr"/>
+      <c r="AC116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>14</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>p/b</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
+      <c r="AB117" t="inlineStr"/>
+      <c r="AC117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
+      <c r="AB118" t="inlineStr"/>
+      <c r="AC118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sharpe</t>
+          <t>sharpe ratio</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,21 @@
       <c r="U1" s="1" t="inlineStr">
         <is>
           <t>idx_18</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>idx_19</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>idx_20</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>idx_21</t>
         </is>
       </c>
     </row>
@@ -561,6 +576,9 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -568,82 +586,29 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>additional amount</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>sharpe ratio</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>portfolio turnover ratio</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -671,115 +636,49 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>samco active momentum fund</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>min.application</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>portfolio turnover ratio</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>samco active momentum fund</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -797,127 +696,49 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>samco dynamic asset allocation fund</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>18</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>portfolio turnover ratio</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>samco dynamic asset allocation fund</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -935,115 +756,49 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>samco flexi cap fund</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>15</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>min.application</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>portfolio turnover ratio</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>samco flexi cap fund</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -1061,107 +816,49 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>samco multi cap fund</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>13</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>min.application</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>samco multi cap fund</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1179,103 +876,49 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>samco special opportunities fund</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>samco special opportunities fund</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -1293,112 +936,70 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>samco elss tax saver fund</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>scheme name</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>min.application</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>portfolio turnover ratio</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>samco elss tax saver fund</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -1415,6 +1016,9 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1422,11 +1026,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>samco multi asset allocation fund</t>
+          <t>bajaj finserv large cap fund</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1435,104 +1039,79 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>min.application</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>load</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>samco multi asset allocation fund</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1549,6 +1128,9 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1556,11 +1138,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>samco overnight fund</t>
+          <t>bajaj finserv flexi cap fund</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1569,42 +1151,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>min.application</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1614,40 +1196,27 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>load</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>load</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1655,109 +1224,64 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>samco arbitrage fund</t>
+          <t>bajaj finserv flexi cap fund</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>bajaj finserv large and mid cap fund</t>
+        </is>
+      </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1767,45 +1291,44 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1813,101 +1336,68 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>bajaj finserv consumption fund</t>
+        </is>
+      </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1917,72 +1407,67 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>bajaj finserv healthcare fund</t>
+        </is>
+      </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1992,72 +1477,67 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>bajaj finserv balanced advantage fund</t>
+        </is>
+      </c>
       <c r="C25" t="n">
         <v>12</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2067,37 +1547,37 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -2106,6 +1586,9 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2113,28 +1596,12 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>4</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>scheme name</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -2149,26 +1616,77 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>bajaj finserv multi asset allocation fund</t>
+        </is>
+      </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
@@ -2176,6 +1694,9 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2183,11 +1704,23 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -2203,6 +1736,1115 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>bajaj finserv arbitrage fund</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>11</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>bajaj finserv liquid fund</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>bajaj finserv money market fund</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>bajaj finserv overnight fund</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>bajaj finserv banking and psu fund</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>bajaj finserv nifty 50 etf</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>bajaj finserv nifty bank etf</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>9</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>12</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>18</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>18</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>21</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,56 +497,6 @@
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>idx_11</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>idx_12</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>idx_13</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>idx_14</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>idx_15</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>idx_16</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>idx_17</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>idx_18</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>idx_19</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>idx_20</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>idx_21</t>
         </is>
       </c>
     </row>
@@ -569,16 +519,6 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -599,16 +539,6 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -629,16 +559,6 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -659,16 +579,6 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -689,16 +599,6 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -719,16 +619,6 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -749,59 +639,99 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>whiteoak capital flexi cap fund</t>
+        </is>
+      </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>whiteoak capital flexi cap fund</t>
+        </is>
+      </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -809,59 +739,99 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>whiteoak capital mid cap fund</t>
+        </is>
+      </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>whiteoak capital mid cap fund</t>
+        </is>
+      </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -869,52 +839,76 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>whiteoak capital elss tax saver fund</t>
+        </is>
+      </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>whiteoak capital elss tax saver fund</t>
+        </is>
+      </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
@@ -929,79 +923,99 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>whiteoak capital large cap fund</t>
+        </is>
+      </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>scheme name</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>scheme name</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>whiteoak capital large cap fund</t>
+        </is>
+      </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>scheme name</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>scheme name</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1009,16 +1023,6 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1026,35 +1030,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bajaj finserv large cap fund</t>
+          <t>whiteoak capital large &amp; mid cap fund</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1064,43 +1068,33 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>load</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>whiteoak capital large &amp; mid cap fund</t>
+        </is>
+      </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1112,8 +1106,16 @@
           <t>nav</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1121,16 +1123,6 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1138,85 +1130,59 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bajaj finserv flexi cap fund</t>
+          <t>whiteoak capital multi cap fund</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>load</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1224,16 +1190,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bajaj finserv flexi cap fund</t>
+          <t>whiteoak capital multi cap fund</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1241,16 +1223,6 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1258,7 +1230,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bajaj finserv large and mid cap fund</t>
+          <t>whiteoak capital pharma and healthcare fund</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1266,37 +1238,37 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1306,67 +1278,87 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>load</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
+          <t>exit load</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>whiteoak capital banking &amp; financial services fund</t>
+        </is>
+      </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1374,7 +1366,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>bajaj finserv consumption fund</t>
+          <t>whiteoak capital special opportunities fund</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1382,27 +1374,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1412,31 +1404,21 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>load</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1444,20 +1426,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bajaj finserv healthcare fund</t>
+          <t>whiteoak capital special opportunities fund</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1467,46 +1449,16 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1514,35 +1466,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bajaj finserv balanced advantage fund</t>
+          <t>whiteoak capital esg best-in-class strategy fund</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1552,56 +1504,54 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>load</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>whiteoak capital esg best-in-class strategy fund</t>
+        </is>
+      </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1609,16 +1559,6 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1626,7 +1566,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bajaj finserv multi asset allocation fund</t>
+          <t>whiteoak capital digital bharat fund</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1634,27 +1574,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1664,7 +1604,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1674,71 +1614,79 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>load</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
+          <t>exit load</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>whiteoak capital balanced advantage fund</t>
+        </is>
+      </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1746,20 +1694,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bajaj finserv arbitrage fund</t>
+          <t>whiteoak capital balanced advantage fund</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1769,54 +1717,16 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1824,7 +1734,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bajaj finserv liquid fund</t>
+          <t>whiteoak capital multi asset allocation fund</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1832,27 +1742,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1862,31 +1772,21 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>load</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1894,20 +1794,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bajaj finserv money market fund</t>
+          <t>whiteoak capital multi asset allocation fund</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1917,46 +1817,16 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1964,7 +1834,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bajaj finserv overnight fund</t>
+          <t>whiteoak capital balanced hybrid fund</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1972,27 +1842,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2002,31 +1872,21 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>load</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2034,20 +1894,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>bajaj finserv banking and psu fund</t>
+          <t>whiteoak capital balanced hybrid fund</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2057,46 +1917,16 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2104,7 +1934,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bajaj finserv nifty 50 etf</t>
+          <t>whiteoak capital arbitrage fund</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2112,27 +1942,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2142,31 +1972,21 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>load</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2174,20 +1994,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>bajaj finserv nifty bank etf</t>
+          <t>whiteoak capital arbitrage fund</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2197,83 +2017,57 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>whiteoak capital liquid fund</t>
+        </is>
+      </c>
       <c r="C36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2283,100 +2077,80 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>whiteoak capital ultra short duration fund</t>
+        </is>
+      </c>
       <c r="C37" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2384,101 +2158,43 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>managed by</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>managed by</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>managed by</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2486,101 +2202,43 @@
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>managed by</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>managed by</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>managed by</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2588,113 +2246,43 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>managed by</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>managed by</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>managed by</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2702,29 +2290,43 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2732,12 +2334,28 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2745,16 +2363,6 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2762,29 +2370,39 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2792,11 +2410,23 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -2805,16 +2435,6 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2822,29 +2442,319 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>benchmark riskometer</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>benchmark riskometer</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>benchmark riskometer</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="n">
+        <v>4</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>9</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>additional amount</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,31 +532,6 @@
       <c r="U1" s="1" t="inlineStr">
         <is>
           <t>idx_18</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>idx_19</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>idx_20</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>idx_21</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>idx_22</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>idx_23</t>
         </is>
       </c>
     </row>
@@ -586,11 +561,6 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -598,31 +568,82 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>additional amount</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -650,57 +671,115 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>samco active momentum fund</t>
+        </is>
+      </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>min.application</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>samco active momentum fund</t>
+        </is>
+      </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -718,11 +797,6 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -730,115 +804,102 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>360 one focused equity fund</t>
+          <t>samco dynamic asset allocation fund</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>sharpe ratio</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>r squared</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>treynor</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -846,115 +907,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>360 one flexicap fund</t>
+          <t>samco dynamic asset allocation fund</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>sharpe ratio</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>r squared</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>treynor</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -962,115 +942,90 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>360 one quant fund</t>
+          <t>samco flexi cap fund</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>min.application</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>average aum</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>sharpe ratio</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>r squared</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>treynor</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1078,127 +1033,34 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>360 one elss tax saver nifty 50 index fund</t>
+          <t>samco flexi cap fund</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>sharpe ratio</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>r squared</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>treynor</t>
-        </is>
-      </c>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1206,83 +1068,82 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>360 one balanced hybrid fund</t>
+          <t>samco multi cap fund</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>min.application</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>portfolio turnover</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr"/>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1290,67 +1151,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>360 one balanced hybrid fund</t>
+          <t>samco multi cap fund</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>sharpe ratio</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>r squared</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>treynor</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1358,11 +1179,6 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1370,103 +1186,78 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>360 one dynamic bond fund</t>
+          <t>samco special opportunities fund</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>assets under management</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
           <t>average aum</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1474,133 +1265,139 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>360 one liquid fund</t>
+          <t>samco special opportunities fund</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>samco elss tax saver fund</t>
+        </is>
+      </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>min.application</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>samco elss tax saver fund</t>
+        </is>
+      </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -1618,11 +1415,794 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>samco multi asset allocation fund</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>17</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>min.application</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>samco multi asset allocation fund</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>samco overnight fund</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>min.application</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>samco arbitrage fund</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>13</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>12</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>12</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,16 +522,6 @@
       <c r="S1" s="1" t="inlineStr">
         <is>
           <t>idx_16</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>idx_17</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>idx_18</t>
         </is>
       </c>
     </row>
@@ -559,8 +549,6 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -568,7 +556,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -577,73 +565,23 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>additional amount</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -669,117 +607,41 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>samco active momentum fund</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>min.application</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>samco active momentum fund</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -795,8 +657,6 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -804,22 +664,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>samco dynamic asset allocation fund</t>
+          <t>bank of india flexi cap</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>objective</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>benchmark</t>
@@ -827,32 +687,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>portfolio turnover ratio</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -862,44 +722,22 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>assets under management</t>
+          <t>load</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>load</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -907,34 +745,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>samco dynamic asset allocation fund</t>
+          <t>bank of india small cap</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>portfolio turnover ratio</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -942,22 +826,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>samco flexi cap fund</t>
+          <t>bank of india elss</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>objective</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>benchmark</t>
@@ -965,67 +849,57 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>min.application</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>portfolio turnover ratio</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>load</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>load</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1033,34 +907,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>samco flexi cap fund</t>
+          <t>bank of india multi cap</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>portfolio turnover ratio</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1068,7 +988,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>samco multi cap fund</t>
+          <t>bank of india business cycle</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1076,14 +996,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>objective</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>benchmark</t>
@@ -1091,59 +1011,57 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>min.application</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>portfolio turnover ratio</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>load</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>assets under management</t>
+          <t>load</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>load</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1151,34 +1069,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>samco multi cap fund</t>
+          <t>bank of india manufacturing &amp;</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>portfolio turnover ratio</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1186,22 +1150,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>samco special opportunities fund</t>
+          <t>bank of india consumption</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>objective</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>benchmark</t>
@@ -1209,32 +1173,32 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>portfolio turnover ratio</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1244,20 +1208,22 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>assets under management</t>
+          <t>load</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1265,34 +1231,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>samco special opportunities fund</t>
+          <t>bank of india large &amp; mid</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>portfolio turnover ratio</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1300,22 +1312,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>samco elss tax saver fund</t>
+          <t>bank of india bluechip fund</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>objective</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>benchmark</t>
@@ -1323,32 +1335,32 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>min.application</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>portfolio turnover ratio</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1358,28 +1370,22 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>load</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>portfolio turnover</t>
+          <t>load</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1387,34 +1393,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>samco elss tax saver fund</t>
+          <t>bank of india mid &amp; small cap</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>portfolio turnover ratio</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1422,22 +1474,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>samco multi asset allocation fund</t>
+          <t>bank of india multi asset</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>objective</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>benchmark</t>
@@ -1445,75 +1497,53 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>min.application</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>load</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>load</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr"/>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1521,34 +1551,76 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>samco multi asset allocation fund</t>
+          <t>bank of india balanced</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1556,98 +1628,76 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>samco overnight fund</t>
+          <t>bank of india conservative</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>objective</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>min.application</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr"/>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1655,22 +1705,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>samco arbitrage fund</t>
+          <t>bank of india arbitrage</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>objective</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>benchmark</t>
@@ -1678,67 +1728,65 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>load</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>assets under management</t>
+          <t>load</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>bank of india liquid fund</t>
+        </is>
+      </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1795,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1757,63 +1805,69 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr"/>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>bank of india ultra short</t>
+        </is>
+      </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1822,12 +1876,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1837,56 +1891,62 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>bank of india credit risk fund</t>
+        </is>
+      </c>
       <c r="C23" t="n">
         <v>12</v>
       </c>
@@ -1897,7 +1957,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1907,61 +1967,63 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>bank of india overnight fund</t>
+        </is>
+      </c>
       <c r="C24" t="n">
         <v>12</v>
       </c>
@@ -1972,7 +2034,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1982,63 +2044,65 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>bank of india short term income</t>
+        </is>
+      </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2047,12 +2111,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2062,50 +2126,52 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr"/>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2117,22 +2183,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>scheme name</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -2147,8 +2213,6 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2156,26 +2220,88 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2183,26 +2309,630 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
+        <v>16</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>16</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>16</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>16</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>11</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="n">
         <v>0</v>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>12</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>additional amount</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>bank of india mutual fund branches - investor service centers (isc's)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,16 +532,6 @@
       <c r="U1" s="1" t="inlineStr">
         <is>
           <t>idx_18</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>idx_19</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>idx_20</t>
         </is>
       </c>
     </row>
@@ -571,8 +561,6 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -580,9 +568,13 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -600,8 +592,6 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -633,8 +623,6 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -666,8 +654,6 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -675,13 +661,9 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -699,547 +681,351 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>360 one focused equity fund</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>19</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>benchmark index</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>sharpe ratio</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>r squared</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>treynor</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>360 one flexicap fund</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>years of experience</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>portfolio turnover ratio</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>entry load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>modified duration</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>sharpe ratio</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>r squared</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>treynor</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr"/>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>360 one quant fund</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>years of experience</t>
+          <t>modified duration</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>sharpe ratio</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>r squared</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>treynor</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr"/>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>360 one elss tax saver nifty 50 index fund</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>portfolio turnover ratio</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>benchmark index</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>sharpe ratio</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>r squared</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>treynor</t>
-        </is>
-      </c>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>360 one balanced hybrid fund</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>years of experience</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>benchmark index</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>scheme objective</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>entry load</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>portfolio turnover</t>
+          <t>monthly avg aum</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>portfolio turnover ratio</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>360 one balanced hybrid fund</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1249,73 +1035,79 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>std. dev</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>portfolio turnover ratio</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>sharpe ratio</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>r squared</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>treynor</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>360 one dynamic bond fund</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1325,150 +1117,158 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>alpha</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>portfolio turnover ratio</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>360 one liquid fund</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>benchmark index</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>portfolio turnover ratio</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1476,100 +1276,86 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>additional amount</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>yield to maturity</t>
+          <t>scheme objective</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>par value</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>portfolio turnover ratio</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>sharpe ratio</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>benchmark index</t>
-        </is>
-      </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>treynor ratio</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1577,28 +1363,2473 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>portfolio turnover ratio</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>portfolio turnover ratio</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>portfolio turnover ratio</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>13</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>12</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>14</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>15</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>15</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>14</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>14</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>14</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>16</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>13</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>14</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>14</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>18</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>portfolio turnover ratio</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>18</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>portfolio turnover ratio</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>14</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>scheme objective</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>monthly avg aum</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>6</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="n">
+        <v>15</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>additional amount</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>par value</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>8</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>portfolio turnover ratio</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,16 @@
       <c r="U1" s="1" t="inlineStr">
         <is>
           <t>idx_18</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>idx_19</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>idx_20</t>
         </is>
       </c>
     </row>
@@ -561,6 +571,8 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -588,6 +600,8 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -619,6 +633,8 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -650,6 +666,8 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -681,6 +699,8 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -692,94 +712,104 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>objective</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>years of experience</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>average aum</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>std. dev</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>sharpe</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>portfolio beta</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>r squared</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>treynor</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -791,94 +821,104 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>objective</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>years of experience</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>average aum</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>std. dev</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>sharpe</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>portfolio beta</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>r squared</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>treynor</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -890,11 +930,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -914,70 +954,76 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>average aum</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>std. dev</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>sharpe</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>portfolio beta</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>r squared</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>treynor</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -989,94 +1035,104 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>objective</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>years of experience</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>inception date</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>average aum</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>std. dev</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>sharpe</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>portfolio beta</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>r squared</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>treynor</t>
         </is>
@@ -1092,63 +1148,59 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>objective</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>years of experience</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>additional purchase</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>load</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
           <t>nav</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1156,6 +1208,8 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1167,7 +1221,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1181,56 +1235,62 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>std. dev</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>sharpe</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>portfolio beta</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>r squared</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>treynor</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>ytm</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>macaulay duration</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1246,7 +1306,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1261,37 +1321,37 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>average aum</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1314,6 +1374,8 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1329,7 +1391,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1344,22 +1406,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>exit load</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1393,6 +1455,8 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1400,7 +1464,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1409,7 +1473,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>fund scheme</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1439,27 +1503,27 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>entry load</t>
+          <t>load</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>modified duration</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>modified duration</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>standard deviation</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>sharpe</t>
+          <t>benchmark index</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1482,12 +1546,10 @@
           <t>objective</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>fund scheme</t>
-        </is>
-      </c>
+      <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1515,6 +1577,8 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,6 +537,16 @@
       <c r="V1" s="1" t="inlineStr">
         <is>
           <t>idx_19</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>idx_20</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>idx_21</t>
         </is>
       </c>
     </row>
@@ -567,6 +577,8 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -574,27 +586,113 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>par value</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>fund scheme</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>additional amount</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -606,7 +704,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -627,53 +725,125 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>samco active momentum fund</t>
+        </is>
+      </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>min.application</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>samco active momentum fund</t>
+        </is>
+      </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -691,6 +861,8 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -698,11 +870,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>360 one focused equity fund</t>
+          <t>samco dynamic asset allocation fund</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -711,90 +883,84 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>benchmark index</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>r squared</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>treynor</t>
-        </is>
-      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -802,103 +968,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>360 one flexicap fund</t>
+          <t>samco dynamic asset allocation fund</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>benchmark index</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>r squared</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>treynor</t>
-        </is>
-      </c>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -906,11 +1010,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>360 one quant fund</t>
+          <t>samco flexi cap fund</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -919,90 +1023,76 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>min.application</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>benchmark index</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>average aum</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>r squared</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>treynor</t>
-        </is>
-      </c>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1010,107 +1100,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>360 one elss tax saver nifty 50 index fund</t>
+          <t>samco flexi cap fund</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>benchmark index</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>r squared</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>treynor</t>
-        </is>
-      </c>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1118,11 +1142,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>360 one balanced hybrid fund</t>
+          <t>samco multi cap fund</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1131,47 +1155,59 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>min.application</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>benchmark index</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -1179,6 +1215,8 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1186,15 +1224,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>360 one balanced hybrid fund</t>
+          <t>samco multi cap fund</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1202,56 +1240,16 @@
           <t>benchmark</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>r squared</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>treynor</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
@@ -1259,6 +1257,8 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1266,11 +1266,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>360 one dynamic bond fund</t>
+          <t>samco special opportunities fund</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1279,70 +1279,64 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>benchmark index</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>average aum</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1350,72 +1344,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>360 one liquid fund</t>
+          <t>samco special opportunities fund</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>benchmark index</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
@@ -1423,113 +1377,121 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>samco elss tax saver fund</t>
+        </is>
+      </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>min.application</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>fund scheme</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>additional amount</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>par value</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>standard deviation</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>sharpe</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>treynor</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
           <t>assets under management</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>samco elss tax saver fund</t>
+        </is>
+      </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -1547,6 +1509,632 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>samco multi asset allocation fund</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>17</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>min.application</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>samco multi asset allocation fund</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>samco overnight fund</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>min.application</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>samco arbitrage fund</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -614,7 +614,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -758,11 +758,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -812,35 +812,39 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>turnover ratio</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>scheme riskometer</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>benchmark riskometer</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>managed by</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>standard deviation</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>information ratio</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
     </row>
@@ -854,7 +858,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -863,7 +867,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -893,7 +897,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -913,36 +917,44 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>turnover ratio</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>benchmark riskometer</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>managed by</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
         <is>
           <t>standard deviation</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>information ratio</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -954,7 +966,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -963,7 +975,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -998,7 +1010,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1013,30 +1025,34 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>turnover ratio</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>benchmark riskometer</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>managed by</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>information ratio</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
     </row>
@@ -1059,7 +1075,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1094,7 +1110,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1109,7 +1125,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>turnover ratio</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1163,7 +1179,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1193,7 +1209,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1213,7 +1229,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>turnover ratio</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1250,7 +1266,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1285,7 +1301,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1295,7 +1311,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>turnover ratio</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1338,11 +1354,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1352,79 +1368,75 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>month end aum</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>pb</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>pb</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>sharpe</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>turnover ratio</t>
+          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>benchmark riskometer</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>benchmark riskometer</t>
+          <t>managed by</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
           <t>information ratio</t>
         </is>
       </c>
+      <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
     </row>
@@ -1447,7 +1459,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1487,7 +1499,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1497,7 +1509,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>turnover ratio</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1539,7 +1551,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1569,7 +1581,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1584,7 +1596,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>turnover ratio</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1631,7 +1643,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1666,7 +1678,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1714,7 +1726,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1754,7 +1766,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1803,7 +1815,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1833,7 +1845,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1853,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>turnover ratio</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1863,7 +1875,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>yield to maturity</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1907,7 +1919,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1937,7 +1949,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1957,7 +1969,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>turnover ratio</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1967,7 +1979,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>yield to maturity</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2015,7 +2027,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2050,7 +2062,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2070,7 +2082,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>turnover ratio</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2080,7 +2092,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>yield to maturity</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2123,49 +2135,49 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>month end aum</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>sharpe</t>
@@ -2178,7 +2190,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>turnover ratio</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2188,7 +2200,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>yield to maturity</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2231,7 +2243,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2261,7 +2273,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2271,7 +2283,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>turnover ratio</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2286,7 +2298,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>yield to maturity</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2323,7 +2335,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2358,7 +2370,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2407,47 +2419,47 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>month end aum</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>creation unit size</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
           <t>tracking error</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>creation unit size</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>load</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2487,47 +2499,47 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>month end aum</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>creation unit size</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
           <t>tracking error</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>creation unit size</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>load</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2562,7 +2574,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2597,7 +2609,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2647,7 +2659,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2677,7 +2689,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2714,11 +2726,11 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2728,54 +2740,50 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>month end aum</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
           <t>managed by</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
@@ -2798,7 +2806,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2833,7 +2841,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2879,7 +2887,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2909,7 +2917,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2956,7 +2964,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3031,7 +3039,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3112,7 +3120,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3195,7 +3203,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3225,7 +3233,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3279,7 +3287,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3309,7 +3317,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3363,7 +3371,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3393,7 +3401,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3447,7 +3455,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3477,7 +3485,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3531,7 +3539,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3561,7 +3569,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3615,7 +3623,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3645,7 +3653,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3699,7 +3707,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3729,7 +3737,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3783,7 +3791,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3813,7 +3821,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3858,7 +3866,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3867,69 +3875,65 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>month end aum</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>creation unit size</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>creation unit size</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>benchmark riskometer</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>benchmark riskometer</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>tracking error</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
           <t>managed by</t>
         </is>
       </c>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -3955,7 +3959,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3985,7 +3989,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4039,7 +4043,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4069,7 +4073,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4123,7 +4127,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4153,7 +4157,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4207,7 +4211,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4237,7 +4241,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4291,7 +4295,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4321,7 +4325,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4375,7 +4379,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4405,7 +4409,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4454,7 +4458,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4464,42 +4468,42 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>month end aum</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>creation unit size</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
           <t>tracking error</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>creation unit size</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>load</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4539,7 +4543,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4574,7 +4578,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4610,7 +4614,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4619,69 +4623,65 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>month end aum</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>creation unit size</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>creation unit size</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>tracking error</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>benchmark riskometer</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>benchmark riskometer</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
           <t>managed by</t>
         </is>
       </c>
+      <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -4832,15 +4832,19 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
+          <t>benchmark riskometer</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
           <t>managed by</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>tracking error</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
@@ -4858,7 +4862,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4867,64 +4871,60 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>month end aum</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>tracking error</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>benchmark riskometer</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>benchmark riskometer</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
           <t>managed by</t>
         </is>
       </c>
+      <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5278,7 +5278,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5287,69 +5287,65 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>month end aum</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>benchmark riskometer</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>benchmark riskometer</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
           <t>managed by</t>
         </is>
       </c>
+      <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
@@ -5366,7 +5362,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,69 +5371,65 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>month end aum</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>benchmark riskometer</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>benchmark riskometer</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
           <t>managed by</t>
         </is>
       </c>
+      <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
@@ -5454,7 +5446,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5463,69 +5455,65 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>month end aum</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>benchmark riskometer</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>benchmark riskometer</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
           <t>managed by</t>
         </is>
       </c>
+      <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
@@ -5542,7 +5530,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5551,69 +5539,65 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>month end aum</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>benchmark riskometer</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>benchmark riskometer</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
           <t>managed by</t>
         </is>
       </c>
+      <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
@@ -5630,7 +5614,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5639,69 +5623,65 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>month end aum</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>benchmark riskometer</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>benchmark riskometer</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
           <t>managed by</t>
         </is>
       </c>
+      <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
@@ -5732,7 +5712,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5762,7 +5742,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -5816,7 +5796,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5846,7 +5826,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5900,7 +5880,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5930,7 +5910,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5984,7 +5964,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -6014,7 +5994,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -6068,7 +6048,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -6098,7 +6078,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -6152,7 +6132,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6182,7 +6162,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6526,19 +6506,23 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
           <t>managed by</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
@@ -6562,19 +6546,23 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
           <t>managed by</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
@@ -6598,24 +6586,28 @@
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
           <t>managed by</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>alpha</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -6674,7 +6666,7 @@
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6683,19 +6675,19 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>turnover ratio</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>sharpe</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
       <c r="H88" t="inlineStr">
         <is>
           <t>benchmark</t>
@@ -6713,10 +6705,14 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -6734,7 +6730,7 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6758,7 +6754,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>par value</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6773,45 +6769,49 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
         <is>
           <t>modified duration</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="O89" t="inlineStr">
         <is>
           <t>standard deviation</t>
         </is>
       </c>
-      <c r="N89" t="inlineStr">
+      <c r="P89" t="inlineStr">
         <is>
           <t>sharpe</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="Q89" t="inlineStr">
         <is>
           <t>assets under management</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr">
+      <c r="R89" t="inlineStr">
         <is>
           <t>objective</t>
         </is>
       </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="R89" t="inlineStr">
+      <c r="S89" t="inlineStr">
         <is>
           <t>macaulay duration</t>
         </is>
       </c>
-      <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X50"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,32 +534,29 @@
           <t>idx_18</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>idx_19</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>idx_20</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>idx_21</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>february 21, 2025</t>
+        </is>
+      </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>risk level</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -576,121 +573,136 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>fund scheme</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>par value</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>additional amount</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>budget 2025: consumption push, trump tariffs &amp; market realignments</t>
+        </is>
+      </c>
       <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>fund scheme</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>additional amount</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>sharpe ratio</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -698,13 +710,9 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -722,9 +730,6 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -736,7 +741,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>pe</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -756,9 +761,6 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -766,9 +768,13 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -786,31 +792,44 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>equity &amp; fund of fund scheme snapshot - page 1 of 2</t>
+        </is>
+      </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund scheme</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>alpha</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -824,23 +843,44 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>equity &amp; fund of fund scheme snapshot - page 2 of 2</t>
+        </is>
+      </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>fund scheme</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -854,9 +894,6 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -864,271 +901,771 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>jenson</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>factsheet</t>
+        </is>
+      </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>jenson</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>factsheet</t>
+        </is>
+      </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>jenson</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>factsheet</t>
+        </is>
+      </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>jenson</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>factsheet</t>
+        </is>
+      </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>jenson</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>factsheet</t>
+        </is>
+      </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>jenson</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>factsheet</t>
+        </is>
+      </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>jenson</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>factsheet</t>
+        </is>
+      </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>jenson</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>factsheet</t>
+        </is>
+      </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -1136,29 +1673,74 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>factsheet</t>
+        </is>
+      </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1166,9 +1748,6 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1176,11 +1755,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jm elss tax saver fund</t>
+          <t>factsheet</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1189,88 +1768,57 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>scheme name</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1278,105 +1826,70 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jm flexicap fund</t>
+          <t>pacific reits fof</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>fund scheme</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>scheme name</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1384,15 +1897,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jm midcap fund</t>
+          <t>hybrid scheme snapshot</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>scheme name</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1402,79 +1915,28 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1482,11 +1944,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jm small cap fund</t>
+          <t>factsheet</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1495,84 +1957,85 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>years of experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>month end aum</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>load</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>turnover ratio</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>portfolio beta</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>turnover ratio</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>face value</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr"/>
+          <t>jenson</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1580,11 +2043,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jm large cap fund</t>
+          <t>factsheet</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1593,100 +2056,81 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>turnover ratio</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>scheme name</t>
+          <t>jenson</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr"/>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1694,7 +2138,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jm value fund</t>
+          <t>factsheet</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1707,12 +2151,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1722,77 +2166,74 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>years of experience</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>month end aum</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>aaum</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t>turnover ratio</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>scheme name</t>
-        </is>
-      </c>
       <c r="Q25" t="inlineStr">
         <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
           <t>sharpe</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>face value</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>jenson</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
+          <t>yield to maturity</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1800,11 +2241,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jm focused fund</t>
+          <t>factsheet</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1813,96 +2254,65 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>years of experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>pb</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>scheme name</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1910,85 +2320,90 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jm arbitrage fund</t>
+          <t>factsheet</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>jenson</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1996,32 +2411,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jm arbitrage fund</t>
+          <t>debt scheme snapshot</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>ytm</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>scheme name</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>modified duration</t>
@@ -2029,29 +2444,25 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
@@ -2060,9 +2471,6 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2070,11 +2478,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jm aggressive hybrid fund</t>
+          <t>factsheet</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2083,104 +2491,65 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>years of experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>scheme name</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>std. dev</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2188,25 +2557,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jm overnight fund</t>
+          <t>factsheet</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>face value</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2216,69 +2585,54 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>years of experience</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2286,57 +2640,57 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jm liquid fund</t>
+          <t>factsheet</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>years of experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
           <t>load</t>
@@ -2349,34 +2703,19 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>modified duration</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2384,122 +2723,95 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jm short duration fund</t>
+          <t>factsheet</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
           <t>macaulay duration</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>benchmark index</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
           <t>yield to maturity</t>
         </is>
       </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>jm dynamic bond fund</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2509,95 +2821,68 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>years of experience</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>jm low duration fund</t>
-        </is>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2607,44 +2892,44 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>years of experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
       <c r="O34" t="inlineStr">
         <is>
           <t>ytm</t>
@@ -2652,135 +2937,53 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
           <t>yield to maturity</t>
         </is>
       </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>jm medium to long duration fund</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>scheme name</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
+          <t>fund scheme</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2788,28 +2991,24 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>scheme name</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2824,9 +3023,6 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2834,18 +3030,14 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -2862,9 +3054,6 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2872,7 +3061,7 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2881,11 +3070,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>face value</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2900,9 +3097,6 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2914,22 +3108,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>managed by</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>face value</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -2946,9 +3140,6 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2956,33 +3147,29 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>managed by</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>date of inception</t>
-        </is>
-      </c>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -2996,9 +3183,6 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3006,20 +3190,28 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -3034,9 +3226,6 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3044,18 +3233,14 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
@@ -3072,9 +3257,6 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3082,23 +3264,15 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -3114,9 +3288,6 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3148,9 +3319,6 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3182,167 +3350,6 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="n">
-        <v>2</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>scheme name</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,29 +534,22 @@
           <t>idx_18</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>idx_19</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>february 21, 2025</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>risk level</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -573,115 +566,41 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>fund scheme</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>scheme name</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>par value</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>additional amount</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>budget 2025: consumption push, trump tariffs &amp; market realignments</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>0</v>
       </c>
@@ -703,6 +622,7 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -730,6 +650,7 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -737,13 +658,9 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -761,6 +678,7 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -768,13 +686,9 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -792,18 +706,15 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>equity &amp; fund of fund scheme snapshot - page 1 of 2</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -812,17 +723,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>scheme name</t>
+          <t>assets under management</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>managed by</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -830,19 +741,76 @@
           <t>fund manager</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>information ratio</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>portfolio turnover ratio</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>benchmark index</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -850,20 +818,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>equity &amp; fund of fund scheme snapshot - page 2 of 2</t>
+          <t>sundaram large cap fund</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>fund scheme</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>scheme name</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -878,15 +846,39 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>information ratio</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -894,89 +886,87 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>sundaram mid cap fund</t>
+        </is>
+      </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>information ratio</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>turnover ratio</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>jenson</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -984,94 +974,75 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram small cap fund</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>information ratio</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>turnover ratio</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>jenson</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1079,90 +1050,75 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram large and mid cap fund</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>information ratio</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>turnover ratio</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>jenson</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1170,86 +1126,79 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram multi cap fund</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>information ratio</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>turnover ratio</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>jenson</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1257,90 +1206,63 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram flexi cap fund</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>alpha</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>turnover ratio</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>jenson</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1348,82 +1270,71 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram focused fund</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>information ratio</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>turnover ratio</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>jenson</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1431,86 +1342,71 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram elss tax saver fund*</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>information ratio</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
           <t>turnover ratio</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>jenson</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1518,86 +1414,75 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram dividend yield fund</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>information ratio</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>turnover ratio</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>jenson</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1605,7 +1490,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram consumption fund</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1613,57 +1498,57 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>alpha</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>information ratio</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>nav</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1673,6 +1558,7 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1680,7 +1566,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram services fund</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1688,57 +1574,57 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>information ratio</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>nav</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1748,6 +1634,7 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1755,63 +1642,67 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram infrastructure advantage fund</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>information ratio</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1819,6 +1710,7 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1826,63 +1718,67 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pacific reits fof</t>
+          <t>sundaram financial services opportunities fund</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>fund scheme</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>information ratio</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -1890,6 +1786,7 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1897,37 +1794,57 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>hybrid scheme snapshot</t>
+          <t>sundaram business cycle fund</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>scheme name</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>avg. aum</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>inception date</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1937,6 +1854,7 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1944,98 +1862,63 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram global brand fund</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>fund scheme</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>month end aum</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>avg. aum</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>jenson</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2043,94 +1926,71 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram nifty 100 equal weight fund</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>information ratio</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
           <t>turnover ratio</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>jenson</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2138,102 +1998,91 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram aggressive hybrid fund</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>avg. aum</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>information ratio</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
           <t>ytm</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>turnover ratio</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>jenson</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2241,78 +2090,91 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram equity savings fund</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
+          <t>information ratio</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
           <t>ytm</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2320,7 +2182,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram balanced advantage fund</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2328,82 +2190,83 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>information ratio</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>ytm</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>jenson</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>nav</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2411,66 +2274,79 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>debt scheme snapshot</t>
+          <t>sundaram multi asset allocation fund</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>month end aum</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>avg. aum</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>inception date</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>ytm</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>month end aum</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>avg. aum</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2478,78 +2354,91 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram arbitrage fund</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
+          <t>information ratio</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
           <t>ytm</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2557,82 +2446,71 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram diversified equity fund*</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>face value</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>information ratio</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2640,82 +2518,59 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram long term tax advantage fund - series i - iv</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2723,142 +2578,123 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>factsheet</t>
+          <t>sundaram long term micro cap tax advantage fund -</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>turnover ratio</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>sundaram liquid fund</t>
+        </is>
+      </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>month end aum</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>avg. aum</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
           <t>macaulay duration</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
       <c r="L33" t="inlineStr">
         <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
           <t>ytm</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2866,116 +2702,142 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>sundaram overnight fund</t>
+        </is>
+      </c>
       <c r="C34" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>month end aum</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>avg. aum</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
           <t>macaulay duration</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>modified duration</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
           <t>ytm</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>sundaram ultra short duration fund</t>
+        </is>
+      </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>scheme name</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>fund scheme</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+          <t>avg. aum</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
@@ -2984,37 +2846,70 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>sundaram money market fund</t>
+        </is>
+      </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>scheme name</t>
+          <t>month end aum</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>avg. aum</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
           <t>macaulay duration</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
@@ -3023,29 +2918,70 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>sundaram low duration fund</t>
+        </is>
+      </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>macaulay duration</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>month end aum</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>avg. aum</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
@@ -3054,41 +2990,70 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sundaram banking &amp; psu fund</t>
+        </is>
+      </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>month end aum</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>avg. aum</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
@@ -3097,41 +3062,70 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>sundaram short duration fund</t>
+        </is>
+      </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>month end aum</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>avg. aum</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
@@ -3140,41 +3134,70 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>sundaram medium duration fund</t>
+        </is>
+      </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>month end aum</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>avg. aum</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
@@ -3183,41 +3206,70 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>sundaram corporate bond fund</t>
+        </is>
+      </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>month end aum</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>avg. aum</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
@@ -3226,29 +3278,70 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>sundaram conservative hybrid fund</t>
+        </is>
+      </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+          <t>month end aum</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>avg. aum</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
@@ -3257,6 +3350,7 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3268,7 +3362,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -3288,6 +3382,7 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3299,7 +3394,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -3319,6 +3414,7 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3330,7 +3426,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -3350,6 +3446,683 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="n">
+        <v>9</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>fund scheme</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,41 +499,6 @@
           <t>idx_11</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>idx_12</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>idx_13</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>idx_14</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>idx_15</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>idx_16</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>idx_17</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>idx_18</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -541,23 +506,11 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -566,112 +519,58 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dsp flexi cap fund</t>
+        </is>
+      </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>fund scheme</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>additional amount</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>yield to maturity</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>par value</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -679,74 +578,63 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>navi niy 50 index fund</t>
+          <t>dsp top 100 equity fund</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dsp equity opportunities fund</t>
+        </is>
+      </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -755,41 +643,38 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -797,70 +682,51 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>navi us total stock market</t>
+          <t>dsp india t.i.g.e.r. fund</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -868,74 +734,51 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>navi nasdaq 100</t>
+          <t>dsp mid cap fund</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -943,74 +786,67 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>navi niy next 50</t>
+          <t>dsp elss tax saver fund (erstwhile known as dsp tax saver fund)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>portfolio turnover</t>
+          <t>sharpe ratio</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>dsp healthcare fund</t>
+        </is>
+      </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1019,41 +855,38 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1061,20 +894,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>navi niy bank</t>
+          <t>dsp quant fund</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1084,59 +917,44 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsp value fund</t>
+        </is>
+      </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1146,28 +964,33 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1175,105 +998,115 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>navi niy midcap 150</t>
+          <t>dsp small cap fund</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dsp focus fund</t>
+        </is>
+      </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>pb</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>dsp multicap fund</t>
+        </is>
+      </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1282,41 +1115,30 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1324,130 +1146,136 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>navi niy india</t>
+          <t>dsp business cycle fund</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>dsp natural resources and new energy fund</t>
+        </is>
+      </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>dsp world gold fund of fund</t>
+        </is>
+      </c>
       <c r="C17" t="n">
         <v>6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>fund scheme</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1455,13 +1283,6 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1469,117 +1290,91 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>navi elss tax saver</t>
+          <t>dsp world mining fund)</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>fund scheme</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>dsp world energy fund)</t>
+        </is>
+      </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>fund scheme</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1587,117 +1382,87 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>navi bse sensex</t>
+          <t>dsp us flexible equity fund)</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>fund scheme</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>dsp global allocation fund of fund</t>
+        </is>
+      </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>fund scheme</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1705,125 +1470,87 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>navi niy it index fund</t>
+          <t>dsp global innovation fund of fund</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>fund scheme</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dsp gold etf fund of fund</t>
+        </is>
+      </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>fund scheme</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1831,159 +1558,243 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>navi niy 500 multicap 50:25:25</t>
+          <t>dsp us treasury fund of fund</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>dsp dynamic asset allocation fund</t>
+        </is>
+      </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>pb</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>dsp aggressive hybrid fund</t>
+        </is>
+      </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>dsp equity savings fund</t>
+        </is>
+      </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>dsp nifty 50 equal weight index fund</t>
+        </is>
+      </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1992,161 +1803,4778 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>tracking error</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>dsp nifty 50 equal weight etf</t>
+        </is>
+      </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>scheme name</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>dsp nifty 50 etf</t>
+        </is>
+      </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>scheme name</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>dsp nifty midcap 150 quality 50 etf</t>
+        </is>
+      </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>dsp silver etf</t>
+        </is>
+      </c>
       <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>dsp nifty bank etf</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>6</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>dsp nifty it etf</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>6</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>dsp nifty psu bank etf</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>6</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>dsp nifty private bank etf</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>6</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>dsp bse sensex etf</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>6</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>dsp nifty healthcare etf</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>6</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dsp nifty 1d rate liquid etf</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>dsp bse liquid rate etf</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>dsp nifty top 10 equal weight etf</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>6</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>dsp bse sensex next 30 etf</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>dsp nifty top 10 equal weight index fund</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>6</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>dsp nifty midcap 150 quality 50 index fund</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>6</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>dsp nifty next 50 index fund</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>8</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>dsp nifty 50 index fund</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>8</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>dsp nifty bank index fund</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>dsp bse sensex next 30 index fund</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>dsp arbitrage fund</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>11</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>dsp regular savings fund</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>9</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>dsp liquidity fund</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>7</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>dsp ultra short fund</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>8</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>dsp floater fund</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>7</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>dsp nifty sdl plus g-sec jun 2028 30:70 index fund</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>dsp crisil sdl plus g-sec apr 2033 50:50 index fund</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>8</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>dsp nifty sdl plus g-sec sep 2027 50:50 index fund</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>8</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>dsp nifty smallcap250 quality 50 index fund</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>6</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>dsp savings fund</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>7</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>dsp gilt fund (erstwhile dsp government</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>7</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>dsp short term fund</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>8</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>dsp banking &amp; psu debt fund</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>7</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>dsp credit risk fund</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>7</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>dsp strategic bond fund</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>7</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>dsp bond fund</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>8</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>dsp low duration fund</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>8</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>dsp 10y g-sec fund</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>7</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>dsp corporate bond fund</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>7</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>dsp multi asset allocation fund</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>8</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>dsp banking &amp; financial services fund</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>5</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="n">
+        <v>4</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="n">
+        <v>4</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="n">
+        <v>5</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="n">
+        <v>3</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="n">
+        <v>3</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="n">
+        <v>3</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="n">
+        <v>4</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="n">
+        <v>5</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>4</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="n">
+        <v>4</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>4</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="n">
+        <v>4</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="n">
+        <v>5</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="n">
+        <v>4</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>4</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="n">
+        <v>8</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="n">
+        <v>4</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="n">
+        <v>5</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="n">
+        <v>4</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="n">
+        <v>5</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="n">
+        <v>3</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="n">
+        <v>6</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="n">
+        <v>7</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="n">
+        <v>5</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>6</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="n">
+        <v>5</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="n">
+        <v>6</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="n">
+        <v>5</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>9</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="n">
+        <v>9</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="n">
+        <v>6</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="n">
+        <v>8</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="n">
+        <v>8</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="n">
+        <v>6</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="n">
+        <v>9</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="n">
+        <v>6</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="n">
+        <v>6</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>creation unit size</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="n">
+        <v>6</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>creation unit size</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>7</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>creation unit size</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="n">
+        <v>6</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>creation unit size</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="n">
+        <v>8</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>creation unit size</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="n">
+        <v>7</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="n">
+        <v>6</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="n">
+        <v>2</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="n">
+        <v>2</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="n">
+        <v>2</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="n">
+        <v>3</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="n">
+        <v>2</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="n">
+        <v>2</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="n">
+        <v>2</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="n">
+        <v>10</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>additional amount</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="n">
+        <v>10</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>fund scheme</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="n">
+        <v>5</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,31 @@
           <t>idx_14</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>idx_15</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>idx_16</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>idx_17</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>idx_18</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>idx_19</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -521,23 +546,11 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -549,6 +562,11 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -556,9 +574,13 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -572,6 +594,11 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -595,6 +622,11 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -618,6 +650,11 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -641,6 +678,11 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -648,13 +690,9 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -668,381 +706,167 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>axis nifty 100 index fund</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>12</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>p/e</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>p/b</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>axis nifty 50 index fund</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>12</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>p/e</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>p/b</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>axis bse sensex index fund</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>12</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>p/e</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>p/b</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>axis nifty next 50 index fund</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>p/e</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>p/b</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>axis nifty smallcap 50 index</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>p/e</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>p/b</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1050,7 +874,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>axis nifty midcap 50 index fund</t>
+          <t>uti large cap fund</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1063,69 +887,74 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>p/b</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>inception date</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>p/e</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>p/b</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>pb</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1133,11 +962,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>axis nifty it index fund</t>
+          <t>uti mid cap fund</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1146,65 +975,74 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>p/b</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
           <t>inception date</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>p/e</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>p/b</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1212,11 +1050,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>axis nifty bank index fund</t>
+          <t>uti small cap fund</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1225,12 +1063,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1240,50 +1078,51 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>p/b</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>p/e</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>p/b</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1291,7 +1130,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>axis nifty 500 index fund</t>
+          <t>uti large &amp; mid cap fund</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1304,65 +1143,70 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>p/b</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>inception date</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>p/e</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>p/b</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1370,11 +1214,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>axis nifty500 value 50 index</t>
+          <t>uti value fund</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1383,57 +1227,74 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>p/b</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
           <t>inception date</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1441,11 +1302,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>axis crisil ibx 70:30 cpse plus</t>
+          <t>uti elss tax saver fund</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1454,12 +1315,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1469,42 +1330,55 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>p/b</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>fund name</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
       <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1512,11 +1386,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>axis crisil ibx sdl may 2027</t>
+          <t>uti focused fund</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1525,57 +1399,70 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>p/b</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>inception date</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>fund name</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1583,11 +1470,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>axis nifty sdl september 2026</t>
+          <t>uti flexi cap fund</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1596,57 +1483,74 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>p/b</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
           <t>inception date</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>fund name</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1654,11 +1558,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>axis crisil ibx 50:50 gilt plus</t>
+          <t>uti innovation fund</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1667,57 +1571,70 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>pb</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>p/b</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>fund name</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1725,11 +1642,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>axis crisil ibx 50:50 gilt plus</t>
+          <t>uti dividend yield fund</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1738,12 +1655,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1753,42 +1670,55 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>p/b</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>fund name</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1796,11 +1726,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>axis crisil ibx sdl june 2034</t>
+          <t>uti mnc fund</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1809,12 +1739,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1824,42 +1754,51 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>p/b</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>fund name</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1867,11 +1806,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>axis crisil-ibx aaa bond</t>
+          <t>uti india consumer fund</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1880,12 +1819,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1895,38 +1834,59 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>p/b</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>fund name</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1934,11 +1894,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>axis crisil ibx aaa bond nbfc</t>
+          <t>uti infrastructure fund</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1947,53 +1907,70 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>p/b</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>fund name</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2001,11 +1978,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>axis crisil-ibx aaa bond</t>
+          <t>uti banking &amp; financial services fund</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2014,12 +1991,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2029,38 +2006,55 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>p/b</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>fund name</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
       <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2068,11 +2062,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>axis nifty 50 etf</t>
+          <t>uti healthcare fund</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2081,65 +2075,74 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>p/b</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>inception date</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>creation unit size</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>p/e</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>p/b</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr"/>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2147,11 +2150,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>axis nifty bank etf</t>
+          <t>uti transportation &amp; logistics fund</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2160,65 +2163,74 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>p/b</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
           <t>inception date</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>creation unit size</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>p/e</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>p/b</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2226,11 +2238,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>axis nifty it etf</t>
+          <t>uti nifty 50 index fund</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2239,12 +2251,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2259,7 +2271,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>creation unit size</t>
+          <t>load</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2269,35 +2281,28 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>p/e</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>p/b</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
           <t>tracking error</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2305,7 +2310,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>axis nifty healthcare etf</t>
+          <t>uti nifty next 50 index fund</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -2318,57 +2323,62 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>managed by</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>tracking error</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>creation unit size</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2376,11 +2386,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>axis nifty india consumption</t>
+          <t>uti nifty 200 momentum 30 index fund</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2389,65 +2399,62 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>tracking error</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>pb</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>creation unit size</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>p/e</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>p/b</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2455,11 +2462,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>axis gold etf</t>
+          <t>uti bse sensex index fund</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2468,57 +2475,58 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>tracking error</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>creation unit size</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2526,11 +2534,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>axis silver etf</t>
+          <t>uti nifty midcap 150 quality 50 index fund</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2539,7 +2547,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2549,7 +2557,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2564,7 +2572,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>creation unit size</t>
+          <t>load</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2574,22 +2582,19 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2597,11 +2602,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>axis nifty aaa bond plus sdl</t>
+          <t>uti bse low volatility index fund</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2610,61 +2615,54 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>tracking error</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>creation unit size</t>
-        </is>
-      </c>
       <c r="J34" t="inlineStr">
         <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>fund name</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2672,11 +2670,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>axis bse sensex etf</t>
+          <t>uti nifty 50 equal weight index fund</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2685,65 +2683,58 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>tracking error</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>creation unit size</t>
-        </is>
-      </c>
       <c r="J35" t="inlineStr">
         <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>p/e</t>
+          <t>managed by</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>p/b</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2751,11 +2742,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>axis equity etfs fof</t>
+          <t>uti nifty 500 value 50 index fund</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2764,61 +2755,58 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>tracking error</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>fund scheme</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>managed by</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>p/e</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>p/b</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2826,11 +2814,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>axis gold fund</t>
+          <t>uti bse housing index fund</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2839,57 +2827,58 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>tracking error</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>fund scheme</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>managed by</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2897,11 +2886,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>axis silver fund of fund</t>
+          <t>uti nifty private bank index fund</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2910,53 +2899,54 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>tracking error</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>fund scheme</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2964,7 +2954,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>axis nifty aaa bond plus sdl</t>
+          <t>uti nifty200 quality 30 index fund</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2977,42 +2967,42 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>tracking error</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>fund scheme</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="M39" t="inlineStr"/>
@@ -3020,133 +3010,249 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>uti nifty alpha low-volatility 30 index fund</t>
+        </is>
+      </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>alpha</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>uti nifty midcap 150 index fund</t>
+        </is>
+      </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>uti balanced advantage fund</t>
+        </is>
+      </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>uti balanced advantage fund</t>
+        </is>
+      </c>
       <c r="C43" t="n">
         <v>3</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>yield to maturity</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>face value</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -3160,67 +3266,121 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>uti multi asset allocation fund</t>
+        </is>
+      </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>uti multi asset allocation fund</t>
+        </is>
+      </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>face value</t>
+          <t>yield to maturity</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -3230,49 +3390,95 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>uti aggressive hybrid fund</t>
+        </is>
+      </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>face value</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
           <t>managed by</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>uti aggressive hybrid fund</t>
+        </is>
+      </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3281,16 +3487,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -3300,49 +3514,91 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>uti equity savings fund</t>
+        </is>
+      </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>uti equity savings fund</t>
+        </is>
+      </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3351,16 +3607,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -3370,111 +3634,210 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>uti arbitrage fund</t>
+        </is>
+      </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
       <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>uti conservative hybrid fund</t>
+        </is>
+      </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>fund name</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>managing scheme</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>uti conservative hybrid fund</t>
+        </is>
+      </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>fund name</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
@@ -3483,75 +3846,117 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>uti children’s equity fund</t>
+        </is>
+      </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>fund name</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>fund scheme</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>uti children’s equity fund</t>
+        </is>
+      </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>fund name</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -3561,57 +3966,91 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>uti children’s hybrid fund</t>
+        </is>
+      </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>fund name</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>fund scheme</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>managing scheme</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>uti children’s hybrid fund</t>
+        </is>
+      </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3620,16 +4059,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -3639,6 +4086,3411 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>uti retirement fund</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>8</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>uti retirement fund</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>uti unit linked insurance plan*</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>9</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>managing scheme</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>uti unit linked insurance plan*</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>5</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>uti overnight fund</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>12</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>uti liquid fund</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>11</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>uti money market fund</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>11</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>uti ultra short duration fund</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>11</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>uti low duration fund</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>12</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>uti short duration fund</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>12</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>uti medium duration fund</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>12</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>uti medium duration fund</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>uti medium to long duration fund</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>12</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>uti long duration fund</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>12</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>uti floater fund</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>11</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>uti banking &amp; psu fund</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>12</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>uti corporate bond fund</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>11</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>uti dynamic bond fund</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>12</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>uti credit risk fund</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>13</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>uti credit risk fund</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>uti gilt fund</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>12</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>uti gilt fund with 10 year constant duration</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>11</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>uti crisil sdl maturity june 2027 index fund</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>11</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>uti crisil sdl maturity april 2033 index fund</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>11</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>uti nifty sdl plus aaa psu bond apr 2026 75:25 index fund</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>11</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>uti nifty sdl plus aaa psu bond apr 2028 75:25 index fund</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>11</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>6</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>5</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="n">
+        <v>6</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>6</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="n">
+        <v>6</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="n">
+        <v>7</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>7</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="n">
+        <v>2</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="n">
+        <v>4</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="n">
+        <v>10</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>fund scheme</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>par value</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="n">
+        <v>19</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>fund scheme</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>sharpe ratio</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>p/b</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>price to book</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>price to earnings</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>return on equity</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -595,7 +595,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -644,44 +644,36 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>sharpe ratio</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>sharpe</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>standard deviation</t>
+          <t>yield to maturity</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>yield to maturity</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>par value</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>par value</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -903,7 +895,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -958,7 +950,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>sharpe ratio</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -986,7 +978,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1046,7 +1038,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>sharpe ratio</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1073,7 +1065,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1133,7 +1125,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>sharpe ratio</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1160,7 +1152,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1212,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>sharpe ratio</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1243,68 +1235,64 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>pb</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>pb</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>load</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
           <t>portfolio turnover</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
@@ -1326,7 +1314,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1381,7 +1369,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>sharpe ratio</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1409,7 +1397,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1469,7 +1457,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>sharpe ratio</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1496,7 +1484,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1551,7 +1539,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>sharpe ratio</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1579,7 +1567,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1634,7 +1622,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>sharpe ratio</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1658,83 +1646,79 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>pb</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>pb</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>load</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>standard deviation</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>sharpe ratio</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
           <t>portfolio turnover</t>
         </is>
       </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
@@ -1753,7 +1737,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1824,63 +1808,59 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>load</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
           <t>portfolio turnover</t>
         </is>
       </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -1899,73 +1879,69 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark index</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>load</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
           <t>tracking error</t>
         </is>
       </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
@@ -1982,73 +1958,69 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark index</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>benchmark index</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>load</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
           <t>tracking error</t>
         </is>
       </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
@@ -2065,78 +2037,74 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>load</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>standard deviation</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>sharpe ratio</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
           <t>portfolio turnover</t>
         </is>
       </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2156,7 +2124,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2216,7 +2184,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>sharpe ratio</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2243,7 +2211,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2323,7 +2291,7 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>sharpe ratio</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -2342,93 +2310,89 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>pb</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>pb</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>modified duration</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>modified duration</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>load</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
           <t>portfolio turnover</t>
         </is>
       </c>
+      <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -2441,93 +2405,89 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>pb</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>pb</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>modified duration</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>modified duration</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>load</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
           <t>portfolio turnover</t>
         </is>
       </c>
+      <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -2540,93 +2500,89 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>pb</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>pb</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>modified duration</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>modified duration</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>load</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
           <t>portfolio turnover</t>
         </is>
       </c>
+      <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -2639,63 +2595,59 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>load</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
           <t>portfolio turnover</t>
         </is>
       </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2719,7 +2671,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2774,7 +2726,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>sharpe ratio</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
@@ -2802,7 +2754,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2857,7 +2809,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>sharpe ratio</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
@@ -2872,7 +2824,7 @@
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2881,69 +2833,65 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>load</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>sharpe ratio</t>
-        </is>
-      </c>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2963,7 +2911,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3050,7 +2998,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3137,83 +3085,79 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>modified duration</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>modified duration</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
           <t>load</t>
         </is>
       </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
@@ -3237,7 +3181,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3324,7 +3268,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3411,7 +3355,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3489,7 +3433,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3498,74 +3442,70 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>modified duration</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>modified duration</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
           <t>load</t>
         </is>
       </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -3584,7 +3524,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3671,7 +3611,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3754,83 +3694,79 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>modified duration</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>modified duration</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
           <t>load</t>
         </is>
       </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -3845,83 +3781,79 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>modified duration</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>modified duration</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
           <t>load</t>
         </is>
       </c>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
@@ -3936,83 +3868,79 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>modified duration</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>modified duration</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
           <t>load</t>
         </is>
       </c>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
@@ -4027,83 +3955,79 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>modified duration</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>modified duration</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
           <t>load</t>
         </is>
       </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -4118,83 +4042,79 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>ytm</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>modified duration</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>modified duration</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>total experience</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
           <t>load</t>
         </is>
       </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
@@ -4213,7 +4133,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4300,7 +4220,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4413,7 +4333,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>sharpe ratio</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -4468,7 +4388,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>sharpe ratio</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -4523,7 +4443,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>sharpe ratio</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,18 +603,14 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -679,23 +675,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>alpha</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>roe</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>p/e</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -757,79 +741,35 @@
       <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SHRIRAM AGGRESSIVE HYBRID FUND</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>about the fund</t>
+          <t>alpha</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>date of inception</t>
+          <t>roe</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>pb</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
+          <t>p/e</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
@@ -851,78 +791,70 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>about the fund</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>standard deviation</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>portfolio beta</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpe</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>modified duration</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
+          <t>average aum</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>yield to maturity</t>
+          <t>portfolio turnover</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>face value</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>pb</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>date of inception</t>
-        </is>
-      </c>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -939,79 +871,87 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SHRIRAM FLEXI CAP FUND</t>
+          <t>SHRIRAM AGGRESSIVE HYBRID FUND</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>about the fund</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>information ratio</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
           <t>date of inception</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>pb</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
@@ -1031,55 +971,63 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>about the fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>date of inception</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1099,67 +1047,63 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SHRIRAM ELSS TAX SAVER FUND</t>
+          <t>SHRIRAM FLEXI CAP FUND</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>about the fund</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>date of inception</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>portfolio turnover</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>portfolio beta</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>entry load</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>pb</t>
-        </is>
-      </c>
+          <t>information ratio</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1183,54 +1127,58 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>about the fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>date of inception</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Minimum application amount</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -1251,77 +1199,65 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SHRIRAM BALANCED ADVANTAGE FUND</t>
+          <t>SHRIRAM ELSS TAX SAVER FUND</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>about the fund</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>date of inception</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>portfolio turnover</t>
+          <t>portfolio beta</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>pb</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
+          <t>information ratio</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -1343,73 +1279,69 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>about the fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>date of inception</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>modified duration</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
+          <t>Minimum application amount</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
@@ -1427,87 +1359,83 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SHRIRAM OVERNIGHT FUND</t>
+          <t>SHRIRAM BALANCED ADVANTAGE FUND</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>about the fund</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>date of inception</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>portfolio beta</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>entry load</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>information ratio</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>modified duration</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>modified duration</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
           <t>yield to maturity</t>
         </is>
       </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
@@ -1527,47 +1455,83 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>about the fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>date of inception</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Minimum application amount</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
@@ -1583,77 +1547,49 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SHRIRAM MULTI ASSET ALLOCATION FUND</t>
+          <t>SHRIRAM OVERNIGHT FUND</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>about the fund</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>date of inception</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>pb</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -1675,73 +1611,69 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>about the fund</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>date of inception</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>modified duration</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>yield to maturity</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>date of inception</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>standard deviation</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
+          <t>Minimum application amount</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
@@ -1759,97 +1691,85 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SHRIRAM Nifty 1D Rate Liquid ETF</t>
+          <t>SHRIRAM MULTI ASSET ALLOCATION FUND</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>about the fund</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
           <t>date of inception</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>quantitative data</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>portfolio beta</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>modified duration</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
+          <t>information ratio</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
@@ -1863,11 +1783,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SHRIRAM LIQUID FUND</t>
+          <t>SHRIRAM Nifty 1D Rate Liquid ETF</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1891,7 +1811,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>tracking error</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1906,25 +1826,49 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -1947,52 +1891,52 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>about the fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Minimum application amount</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>date of inception</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>ytm</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -2015,72 +1959,64 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SHRIRAM MULTI SECTOR ROTATION FUND</t>
+          <t>SHRIRAM LIQUID FUND</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>portfolio turnover</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>about the fund</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>date of inception</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>total experience</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>average aum</t>
+          <t>modified duration</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>entry load</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
@@ -2103,39 +2039,63 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>about the fund</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>date of inception</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -2153,13 +2113,17 @@
       <c r="A24" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SHRIRAM MULTI SECTOR ROTATION FUND</t>
+        </is>
+      </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2167,9 +2131,21 @@
           <t>benchmark</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -2195,43 +2171,123 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>alpha</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>par value</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>additional amount</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>fund scheme</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>r squared</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2239,123 +2295,39 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>par value</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>additional amount</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>fund scheme</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>r squared</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>portfolio beta</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2363,11 +2335,23 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -2389,6 +2373,38 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
     </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,31 @@
           <t>highlight_count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>idx_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>idx_2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>idx_3</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>idx_4</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>idx_5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -458,6 +483,11 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -467,6 +497,11 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -474,8 +509,17 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -483,12 +527,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zerodha Nifty LargeMidcap  250 Index Fund</t>
+          <t>Zerodha Nifty LargeMidcap 250 Index Fund</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -496,8 +561,21 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -505,12 +583,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Zerodha ELSS Tax Saver Nifty  LargeMidcap 250 Index Fund</t>
+          <t>Zerodha ELSS Tax Saver Nifty LargeMidcap 250 Index Fund</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -518,8 +617,17 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -527,12 +635,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Zerodha Nifty 1D Rate  Liquid ETF</t>
+          <t>Zerodha Nifty 1D Rate Liquid ETF</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -540,8 +669,17 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -553,8 +691,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -562,8 +721,17 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -576,8 +744,29 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -585,8 +774,17 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -594,12 +792,33 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Zerodha Nifty  Midcap 150 ETF</t>
+          <t>Zerodha Nifty Midcap 150 ETF</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -607,8 +826,21 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -620,8 +852,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -629,8 +882,17 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -638,8 +900,17 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -649,6 +920,11 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -662,6 +938,11 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -669,7 +950,32 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -678,8 +984,21 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,86 @@
           <t>idx_5</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>idx_6</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>idx_7</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>idx_8</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>idx_9</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>idx_10</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>idx_11</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>idx_12</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>idx_13</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>idx_14</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>idx_15</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>idx_16</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>idx_17</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>idx_18</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>idx_19</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>idx_20</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>idx_21</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -488,6 +568,22 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -495,13 +591,33 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -509,51 +625,71 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Zerodha Nifty LargeMidcap 250 Index Fund</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -561,55 +697,83 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>pe</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Zerodha ELSS Tax Saver Nifty LargeMidcap 250 Index Fund</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>month end aum</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -617,51 +781,119 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>month end aum</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Zerodha Nifty 1D Rate Liquid ETF</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>month end aum</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -669,17 +901,65 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>month end aum</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -687,51 +967,211 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Zerodha Gold ETF</t>
+          <t>ITI Multi Cap Fund</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ITI Long Term Equity Fund</t>
+        </is>
+      </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>fund name</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -739,52 +1179,203 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Zerodha Nifty  - 100 ETF</t>
+          <t>ITI Large Cap Fund</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ITI Mid Cap Fund</t>
+        </is>
+      </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -792,55 +1383,207 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Zerodha Nifty Midcap 150 ETF</t>
+          <t>ITI Small Cap Fund</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ITI Value Fund</t>
+        </is>
+      </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
           <t>pb</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -848,33 +1591,101 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Zerodha Gold ETF FoF</t>
+          <t>ITI Pharma and Healthcare Fund</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -882,49 +1693,317 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ITI Flexi Cap Fund</t>
+        </is>
+      </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ITI Focused Equity Fund</t>
+        </is>
+      </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -932,49 +2011,221 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Zerodha Nifty 100 ETF</t>
+          <t>ITI Large &amp; Mid Cap Fund</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>portfolio beta</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ITI Balanced Advantage Fund</t>
+        </is>
+      </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
         <is>
           <t>sharpe</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>face value</t>
         </is>
       </c>
     </row>
@@ -982,23 +2233,1211 @@
       <c r="A23" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ITI Arbitrage Fund</t>
+        </is>
+      </c>
       <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ITI Overnight Fund</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>17</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ITI Liquid Fund</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>17</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ITI Ultra Short Duration Fund</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>17</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ITI Banking &amp; PSU Debt Fund</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>18</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ITI Dynamic Bond Fund</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>17</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="n">
         <v>2</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>benchmark</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>18</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>fund scheme</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>par value</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>price to earnings</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>price to book</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,21 +542,6 @@
       <c r="V1" s="1" t="inlineStr">
         <is>
           <t>idx_19</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>idx_20</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>idx_21</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>idx_22</t>
         </is>
       </c>
     </row>
@@ -587,9 +572,6 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -601,7 +583,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>fund scheme</t>
+          <t>Minimum application amount</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -622,9 +604,6 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -632,34 +611,99 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pe</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>fund scheme</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>par value</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -688,9 +732,6 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -719,9 +760,6 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -729,9 +767,13 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>pe</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -750,318 +792,94 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Baroda BNP Paribas Large Cap Fund</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>16</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>roe</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Baroda BNP Paribas Large &amp; Mid Cap Fund</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>18</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>roe</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>pb</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Baroda BNP Paribas Mid Cap Fund</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>roe</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>pb</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1069,7 +887,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Small Cap Fund</t>
+          <t>HSBC Large Cap Fund</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1077,17 +895,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1097,52 +915,52 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>roe</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -1150,9 +968,6 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1160,7 +975,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Flexi Cap Fund</t>
+          <t>HSBC Large and Mid Cap Fund</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1168,17 +983,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1188,66 +1003,63 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>roe</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>pb</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1255,25 +1067,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Multi Cap Fund</t>
+          <t>HSBC Midcap Fund</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1283,74 +1095,63 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>roe</t>
-        </is>
-      </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
           <t>pb</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1358,25 +1159,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Value Fund</t>
+          <t>HSBC Flexi Cap Fund</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1386,62 +1187,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>roe</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1449,37 +1251,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Dividend Yield Fund</t>
+          <t>HSBC Multi Cap Fund</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>aaum</t>
@@ -1492,47 +1294,40 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>roe</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1540,37 +1335,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Focused Fund</t>
+          <t>HSBC Small Cap Fund</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>aaum</t>
@@ -1578,64 +1373,49 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>roe</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>pb</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1643,25 +1423,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas ELSS Tax Saver Fund</t>
+          <t>HSBC Focused Fund</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1671,74 +1451,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>roe</t>
-        </is>
-      </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
           <t>pb</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1746,25 +1515,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas India Consumption Fund</t>
+          <t>HSBC Infrastructure Fund</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1774,74 +1543,59 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>roe</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>pb</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1849,25 +1603,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Business Cycle Fund</t>
+          <t>HSBC Value Fund</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1877,74 +1631,59 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>roe</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>pb</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1952,37 +1691,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Banking &amp; Financial Services Fund</t>
+          <t>HSBC Business Cycles Fund</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>aaum</t>
@@ -1995,59 +1734,52 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>roe</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
       <c r="S20" t="inlineStr">
         <is>
           <t>pb</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+      <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2055,25 +1787,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Innovation Fund</t>
+          <t>HSBC Consumption Fund</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2083,34 +1815,34 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
@@ -2118,31 +1850,16 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>roe</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
           <t>pb</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2150,37 +1867,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Manufacturing Fund</t>
+          <t>HSBC India Export Opportunities Fund</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>aaum</t>
@@ -2193,47 +1910,36 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>roe</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2241,25 +1947,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Energy Opportunities Fund</t>
+          <t>HSBC Financial Services Fund</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2269,34 +1975,34 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
@@ -2304,23 +2010,16 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2328,37 +2027,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Aqua Fund of Fund</t>
+          <t>HSBC Nifty 50 Index Fund</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>aaum</t>
@@ -2371,47 +2070,40 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>fund scheme</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2419,37 +2111,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Balanced Advantage Fund</t>
+          <t>HSBC Nifty Next 50 Index Fund</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>aaum</t>
@@ -2462,75 +2154,40 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>Minimum application amount</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>pb</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr"/>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2538,50 +2195,91 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Balanced Advantage Fund</t>
+          <t>HSBC ELSS Tax Saver Fund</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
           <t>sharpe</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2589,25 +2287,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Aggressive Hybrid Fund</t>
+          <t>HSBC Tax Saver Equity Fund</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2617,82 +2315,63 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2700,25 +2379,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Multi Asset Fund</t>
+          <t>HSBC Aggressive Hybrid Fund</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2728,74 +2407,79 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
         <is>
           <t>average maturity</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>modified duration</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2803,30 +2487,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Equity Savings Fund</t>
+          <t>HSBC Multi Asset Allocation Fund</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2836,81 +2520,70 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>average maturity</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>modified duration</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2918,7 +2591,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Conservative Hybrid Fund</t>
+          <t>HSBC Balanced Advantage Fund</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -2926,22 +2599,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2951,73 +2624,70 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
         <is>
           <t>average maturity</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>modified duration</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3025,37 +2695,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Arbitrage Fund</t>
+          <t>HSBC Equity Savings Fund</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>aaum</t>
@@ -3068,67 +2738,60 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
         <is>
           <t>average maturity</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>modified duration</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3136,37 +2799,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Retirement Fund</t>
+          <t>HSBC Arbitrage Fund</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>aaum</t>
@@ -3179,106 +2842,79 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>portfolio turnover</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
           <t>pb</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Baroda BNP Paribas Childrens Fund</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>fund scheme</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="J33" t="inlineStr">
         <is>
           <t>aaum</t>
@@ -3291,482 +2927,395 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>average maturity</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Baroda BNP Paribas Liquid Fund</t>
-        </is>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund scheme</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>aaum</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
       <c r="K34" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Baroda BNP Paribas Overnight Fund</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund scheme</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>aaum</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
       <c r="J35" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>face value</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Baroda BNP Paribas Ultra Short Duration Fund</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund scheme</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>aaum</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
       <c r="J36" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>face value</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Baroda BNP Paribas Low Duration Fund</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>fund scheme</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>aaum</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>macaulay duration</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3774,32 +3323,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Money Market Fund</t>
+          <t>HSBC Overnight Fund</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>aaum</t>
@@ -3812,64 +3361,53 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>average maturity</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>modified duration</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>macaulay duration</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3877,7 +3415,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Banking and PSU Bond Fund</t>
+          <t>HSBC Liquid Fund</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3885,90 +3423,87 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>aaum</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>average maturity</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>modified duration</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3976,102 +3511,95 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Short Duration Fund</t>
+          <t>HSBC Money Market Fund</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>aaum</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>average maturity</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>modified duration</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>macaulay duration</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4079,102 +3607,91 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Credit Risk Fund</t>
+          <t>HSBC Low Duration Fund</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>aaum</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>average maturity</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>modified duration</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4182,102 +3699,91 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Corporate Bond Fund</t>
+          <t>HSBC Ultra Short Duration Fund</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>aaum</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>average maturity</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>modified duration</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4285,102 +3791,91 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Dynamic Bond Fund</t>
+          <t>HSBC Short Duration Fund</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>aaum</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>average maturity</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>modified duration</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4388,102 +3883,95 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Gilt Fund</t>
+          <t>HSBC Medium Duration Fund</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>quantitative data</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>ytm</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="N44" t="inlineStr">
         <is>
           <t>aaum</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
         <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4491,30 +3979,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas NIFTY SDL December 2026 Index Fund</t>
+          <t>HSBC Medium to Long Duration Fund</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -4524,73 +4012,58 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>average maturity</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>modified duration</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4598,55 +4071,55 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas NIFTY SDL December 2028 Index Fund</t>
+          <t>HSBC Dynamic Bond Fund</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4656,48 +4129,33 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>average maturity</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>modified duration</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4705,60 +4163,60 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Nifty 50 Index Fund</t>
+          <t>HSBC Corporate Bond Fund</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4768,31 +4226,32 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4800,90 +4259,95 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Gold ETF</t>
+          <t>HSBC Banking and PSU Debt Fund</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>aaum</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>creation unit size</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4891,94 +4355,95 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas NIFTY BANK ETF</t>
+          <t>HSBC Credit Risk Fund</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>aaum</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>creation unit size</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4986,7 +4451,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Nifty200 Momentum 30 Index Fund</t>
+          <t>HSBC Gilt Fund</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -4994,52 +4459,52 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -5049,35 +4514,32 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>additional purchase</t>
+          <t>average maturity</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>pb</t>
+          <t>modified duration</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
+          <t>macaulay duration</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5085,30 +4547,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas NIFTY Midcap 150 Index Fund</t>
+          <t>HSBC Conservative Hybrid Fund</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -5118,61 +4580,62 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>aaum</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>aaum</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>total experience</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>additional purchase</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
         <is>
           <t>quantitative data</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>additional purchase</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>pb</t>
-        </is>
-      </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr"/>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5180,38 +4643,91 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Large Cap Fund</t>
+          <t>HSBC CRISIL IBX 5050 Gilt Plus SDL Apr 2028 Index Fund</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5219,46 +4735,91 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Baroda BNP Paribas Balanced Advantage Fund</t>
+          <t>HSBC CRISIL IBX Gilt June 2027 Index Fund</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>total experience</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>additional purchase</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>quantitative data</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5266,27 +4827,43 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>scheme name</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -5299,30 +4876,23 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Baroda BNP Paribas ELSS Tax Saver Fund</t>
-        </is>
-      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>scheme name</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5330,10 +4900,26 @@
           <t>benchmark</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -5346,9 +4932,6 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5356,21 +4939,21 @@
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>scheme name</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -5378,9 +4961,21 @@
           <t>fund manager</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -5393,9 +4988,6 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5403,16 +4995,16 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>scheme name</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5422,7 +5014,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>fund manager</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -5432,12 +5024,24 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -5448,43 +5052,60 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Baroda BNP Paribas Large Cap Fund</t>
-        </is>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>managed by</t>
+          <t>scheme name</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>scheme name</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>fund scheme</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -5495,34 +5116,35 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Baroda BNP Paribas Large Cap Fund</t>
-        </is>
-      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -5538,9 +5160,6 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5548,20 +5167,28 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>face value</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -5577,132 +5204,50 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Baroda BNP Paribas Gilt Fund</t>
-        </is>
-      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>face value</t>
+          <t>scheme name</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>fund scheme</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>additional amount</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>par value</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>modified duration</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5710,16 +5255,28 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>quantitative data</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -5735,9 +5292,6 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5749,17 +5303,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>inception date</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>exit load</t>
+          <t>scheme name</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -5778,9 +5332,6 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5788,12 +5339,28 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -5809,9 +5376,6 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5819,12 +5383,28 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -5840,9 +5420,846 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="n">
+        <v>4</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="n">
+        <v>4</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="n">
+        <v>3</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="n">
+        <v>3</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="n">
+        <v>3</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="n">
+        <v>3</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="n">
+        <v>7</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Minimum application amount</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>3</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>fund scheme</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="n">
+        <v>4</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>scheme riskometer</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>fund scheme</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,11 +544,6 @@
           <t>idx_19</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>idx_20</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,23 +551,19 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>fund scheme</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -589,7 +580,6 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -597,176 +587,55 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>minimum investment amount</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>fund scheme</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>additional amount</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>yield to maturity</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>par value</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
           <t>nav</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>managed by</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>rsquared</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>average maturity</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>macaulay duration</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Navi Niy 50 Index Fund</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Minimum application amount</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -775,7 +644,6 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -783,38 +651,22 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>pb</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+          <t>roe</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -828,7 +680,6 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -836,7 +687,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Navi US Total Stock Market Fund of Fund</t>
+          <t>Union FLEXI CAP FUND</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -849,52 +700,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Minimum application amount</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>average aum</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -905,7 +756,6 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -913,11 +763,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Navi NASDAQ 100 Fund of Fund</t>
+          <t>Union MULTICAP FUND</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -926,59 +776,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Minimum application amount</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>average aum</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -986,7 +828,6 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -994,45 +835,45 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Navi Niy Next 50 Index Fund</t>
+          <t>Union BUSINESS CYCLE FUND</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>years of experience</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>assets under management</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Minimum application amount</t>
+          <t>load</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1050,11 +891,7 @@
           <t>average aum</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -1063,51 +900,74 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Union FOCUSED FUND</t>
+        </is>
+      </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -1116,7 +976,6 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1124,11 +983,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Navi Niy Bank Index Fund</t>
+          <t>Union MIDCAP FUND</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1137,63 +996,70 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Minimum application amount</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>average aum</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1201,36 +1067,68 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>scheme riskometer</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -1238,7 +1136,6 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1246,63 +1143,67 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Navi Niy Midcap 150 Index Fund</t>
+          <t>Union SMALL CAP FUND</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>turnover ratio</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Minimum application amount</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1311,7 +1212,6 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1319,23 +1219,63 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>pb</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1344,51 +1284,74 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Union ELSS TAX SAVER FUND</t>
+        </is>
+      </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1397,7 +1360,6 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1405,45 +1367,45 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Navi Niy India Manufacturing Index Fund</t>
+          <t>Union VALUE FUND</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>years of experience</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>assets under management</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Minimum application amount</t>
+          <t>load</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1453,15 +1415,19 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>portfolio turnover</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>average aum</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1470,27 +1436,74 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Union LARGECAP FUND</t>
+        </is>
+      </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1499,7 +1512,6 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1507,44 +1519,52 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Navi Nifty India Manu In An open ended scheme replicating tracking Nifty India Period Navi Niy India Manufacturing Index Fund</t>
+          <t>Union ACTIVE MOMENTUM FUND</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>years of experience</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -1556,7 +1576,6 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1564,7 +1583,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Navi ELSS Tax Saver Niy 50 Index Fund</t>
+          <t>Union AGGRESSIVE HYBRID FUND</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1572,57 +1591,57 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>sharpe</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>turnover ratio</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Minimum application amount</t>
+          <t>assets under management</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>exit load</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>average aum</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1633,48 +1652,59 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Union MULTI ASSET ALLOCATION FUND</t>
+        </is>
+      </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>years of experience</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>assets under management</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -1686,7 +1716,6 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1694,7 +1723,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Navi BSE Sensex Index Fund</t>
+          <t>Union BALANCED ADVANTAGE FUND</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1702,27 +1731,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>years of experience</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>assets under management</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Minimum application amount</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1732,27 +1761,27 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>average aum</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>tracking error</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1763,51 +1792,74 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Union EQUITY SAVINGS FUND</t>
+        </is>
+      </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>years of experience</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>inception date</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>assets under management</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -1816,7 +1868,6 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1824,7 +1875,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Navi Niy IT Index Fund</t>
+          <t>Union ARBITRAGE FUND</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1832,37 +1883,37 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>fund manager</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>years of experience</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>investment objective</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>assets under management</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Minimum application amount</t>
+          <t>load</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1872,22 +1923,22 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>portfolio turnover</t>
+          <t>pb</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>turnover ratio</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>average aum</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
@@ -1897,7 +1948,6 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1905,47 +1955,67 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Navi Nifty IT Inde N i NiIT I d F d Navi Niy IT Index Fund</t>
+          <t>Union GOLD ETF</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -1954,7 +2024,6 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1962,30 +2031,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Navi Niy 500 Multicap 5025 Index Fund</t>
+          <t>Union GOLD ETF FUND OF FUND</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>fund manager</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>nav</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>years of experience</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1995,7 +2064,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Minimum application amount</t>
+          <t>assets under management</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2005,19 +2074,15 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
@@ -2027,30 +2092,69 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Union RETIREMENT FUND</t>
+        </is>
+      </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>pb</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
@@ -2060,26 +2164,69 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Union CHILDRENS FUND</t>
+        </is>
+      </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>average aum</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
@@ -2089,24 +2236,59 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Union CORPORATE BOND FUND</t>
+        </is>
+      </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -2118,48 +2300,59 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Union DYNAMIC BOND FUND</t>
+        </is>
+      </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>tracking error</t>
+          <t>investment objective</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>years of experience</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>load</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>inception date</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>scheme riskometer</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -2171,29 +2364,64 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Union GILT FUND</t>
+        </is>
+      </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>scheme name</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2204,30 +2432,69 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Union SHORT DURATION FUND</t>
+        </is>
+      </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>scheme name</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
@@ -2237,30 +2504,69 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Union MONEY MARKET FUND</t>
+        </is>
+      </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
@@ -2270,25 +2576,64 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Union LIQUID FUND</t>
+        </is>
+      </c>
       <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>aaum</t>
+        </is>
+      </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2299,7 +2644,886 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Union OVERNIGHT FUND</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>8</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>years of experience</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>std dev</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>10</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>average maturity</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>scheme name</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>date of inception</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>inception date</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>additional amount</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>additional amount</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>additional amount</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Minimum application amount</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="n">
+        <v>19</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>fund scheme</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>additional amount</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>par value</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>entry load</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>load</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>macaulay duration</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/pdf_report.xlsx
+++ b/data/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:U149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,11 +539,6 @@
           <t>idx_18</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>idx_19</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -555,12 +550,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>fund scheme</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>scheme riskometer</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -579,7 +574,6 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,7 +585,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>nav</t>
+          <t>alpha</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -611,7 +605,6 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -623,7 +616,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>load</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -643,7 +636,6 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -651,18 +643,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>pb</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>roe</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -679,75 +663,26 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Union FLEXI CAP FUND</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -755,142 +690,128 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Union MULTICAP FUND</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>assets under management</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>minimum investment amount</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>additional amount</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>exit load</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ytm</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>yield to maturity</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>modified duration</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Union BUSINESS CYCLE FUND</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+          <t>pe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
@@ -899,7 +820,6 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -907,75 +827,78 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Union FOCUSED FUND</t>
+          <t>AXIS BLUECHIP FUND</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -983,150 +906,149 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Union MIDCAP FUND</t>
+          <t>AXIS FOCUSED FUND</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>objective</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
           <t>pb</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AXIS ELSS TAX SAVER FUND</t>
+        </is>
+      </c>
       <c r="C11" t="n">
         <v>12</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>pb</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>average aum</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
@@ -1135,7 +1057,6 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1143,147 +1064,161 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Union SMALL CAP FUND</t>
+          <t>AXIS GROWTH OPPORTUNITIES FUND</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>sharpe</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AXIS FLEXI CAP FUND</t>
+        </is>
+      </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>pb</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1291,7 +1226,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Union ELSS TAX SAVER FUND</t>
+          <t>AXIS MULTICAP FUND</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1304,52 +1239,52 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>years of experience</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>exit load</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1359,7 +1294,6 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1367,75 +1301,82 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Union VALUE FUND</t>
+          <t>AXIS MIDCAP FUND</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1443,75 +1384,78 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Union LARGECAP FUND</t>
+          <t>AXIS INNOVATION FUND</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1519,63 +1463,82 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Union ACTIVE MOMENTUM FUND</t>
+          <t>AXIS SMALL CAP FUND</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1583,75 +1546,78 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Union AGGRESSIVE HYBRID FUND</t>
+          <t>AXIS ESG INTEGRATION STRATEGY FUND</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>investment objective</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>managed by</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>sharpe</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>investment objective</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1659,55 +1625,67 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Union MULTI ASSET ALLOCATION FUND</t>
+          <t>AXIS QUANT FUND</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1715,7 +1693,6 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1723,7 +1700,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Union BALANCED ADVANTAGE FUND</t>
+          <t>AXIS VALUE FUND</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1731,57 +1708,57 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>sharpe</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>face value</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>exit load</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>average aum</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1791,7 +1768,6 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1799,11 +1775,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Union EQUITY SAVINGS FUND</t>
+          <t>AXIS BUSINESS CYCLES FUND</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1812,19 +1788,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>years of experience</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>date of allotment</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>benchmark</t>
@@ -1832,34 +1808,26 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>face value</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>entry load</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>exit load</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -1867,7 +1835,6 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1875,40 +1842,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Union ARBITRAGE FUND</t>
+          <t>AXIS INDIA MANUFACTURING FUND</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>portfolio turnover</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>face value</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1923,31 +1890,18 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>pb</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>sharpe</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>turnover ratio</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>average aum</t>
-        </is>
-      </c>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1955,67 +1909,55 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Union GOLD ETF</t>
+          <t>AXIS CONSUMPTION FUND</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>tracking error</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>years of experience</t>
+          <t>face value</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>assets under management</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>load</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>aaum</t>
-        </is>
-      </c>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -2023,7 +1965,6 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2031,57 +1972,53 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Union GOLD ETF FUND OF FUND</t>
+          <t>AXIS MOMENTUM FUND</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>date of allotment</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>fund manager</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>date of allotment</t>
+          <t>entry load</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>assets under management</t>
+          <t>exit load</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>nav</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>entry load</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>exit load</t>
-        </is>
-      </c>
+          <t>pb</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2091,7 +2028,6 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2099,40 +2035,40 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Union RETIREMENT FUND</t>
+          <t>AXIS NIFTY 50 ETF</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>years of experience</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>date of allotment</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>assets under management</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>benchmark</t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>load</t>
+          <t>face value</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2147,14 +2083,10 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>average aum</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>portfolio turnover</t>
-        </is>
-      </c>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
@@ -2163,7 +2095,6 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2171,40 +2102,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Union CHILDRENS FUND</t>
+          <t>AXIS NIFTY BANK ETF</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>date of allotment</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>benchmark</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>tracking error</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>fund manager</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>investment objective</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>years of e